--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C30A17C-45AD-0B4B-8FC3-AE5F62CEE085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BA555F-C766-304B-A06B-1F7113829154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27700" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="-28300" windowWidth="46140" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -5707,10 +5707,10 @@
   <dimension ref="A1:AA146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H148" sqref="H148"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -5733,8 +5733,8 @@
     <col min="16" max="16" width="8.1640625" style="2" customWidth="1"/>
     <col min="17" max="17" width="10" style="2" customWidth="1"/>
     <col min="18" max="18" width="11.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="2" customWidth="1"/>
     <col min="21" max="21" width="11.1640625" style="2" customWidth="1"/>
     <col min="22" max="22" width="9.5" style="13" customWidth="1"/>
     <col min="23" max="23" width="11.6640625" style="2" customWidth="1"/>
@@ -5799,10 +5799,10 @@
         <v>17</v>
       </c>
       <c r="S1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>7</v>
@@ -5849,10 +5849,10 @@
         <v>48</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V2" s="13">
         <v>4.2</v>
@@ -5890,10 +5890,10 @@
         <v>54</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V3" s="13">
         <v>4.5</v>
@@ -5935,10 +5935,10 @@
       </c>
       <c r="N4" s="14"/>
       <c r="S4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V4" s="13">
         <v>5</v>
@@ -5976,10 +5976,10 @@
         <v>90</v>
       </c>
       <c r="S5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V5" s="13">
         <v>5</v>
@@ -6014,10 +6014,10 @@
         <v>76</v>
       </c>
       <c r="S6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V6" s="13">
         <v>5</v>
@@ -6059,10 +6059,10 @@
       </c>
       <c r="N7" s="3"/>
       <c r="S7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V7" s="13">
         <v>5</v>
@@ -6097,10 +6097,10 @@
         <v>75</v>
       </c>
       <c r="S8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V8" s="13">
         <v>5</v>
@@ -6135,10 +6135,10 @@
         <v>78</v>
       </c>
       <c r="S9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V9" s="13">
         <v>5</v>
@@ -6173,10 +6173,10 @@
         <v>79</v>
       </c>
       <c r="S10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V10" s="13">
         <v>5</v>
@@ -6221,10 +6221,10 @@
       </c>
       <c r="N11" s="3"/>
       <c r="S11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V11" s="13">
         <v>5</v>
@@ -6259,10 +6259,10 @@
         <v>165</v>
       </c>
       <c r="S12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V12" s="13">
         <v>5</v>
@@ -6294,10 +6294,10 @@
         <v>142</v>
       </c>
       <c r="S13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V13" s="13">
         <v>5</v>
@@ -6332,10 +6332,10 @@
         <v>175</v>
       </c>
       <c r="S14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V14" s="13">
         <v>3.4</v>
@@ -6377,10 +6377,10 @@
       </c>
       <c r="N15" s="3"/>
       <c r="S15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V15" s="13">
         <v>4.9000000000000004</v>
@@ -6418,10 +6418,10 @@
         <v>188</v>
       </c>
       <c r="S16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V16" s="13">
         <v>5</v>
@@ -6450,10 +6450,10 @@
         <v>146</v>
       </c>
       <c r="S17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V17" s="13">
         <v>5</v>
@@ -6479,10 +6479,10 @@
         <v>147</v>
       </c>
       <c r="S18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V18" s="13">
         <v>5</v>
@@ -6515,10 +6515,10 @@
         <v>245</v>
       </c>
       <c r="S19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V19" s="13">
         <v>5</v>
@@ -6547,10 +6547,10 @@
         <v>246</v>
       </c>
       <c r="S20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V20" s="13">
         <v>5</v>
@@ -6576,10 +6576,10 @@
         <v>148</v>
       </c>
       <c r="S21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V21" s="13">
         <v>5</v>
@@ -6608,10 +6608,10 @@
         <v>149</v>
       </c>
       <c r="S22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V22" s="13">
         <v>5</v>
@@ -6649,10 +6649,10 @@
         <v>224</v>
       </c>
       <c r="S23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V23" s="13">
         <v>5</v>
@@ -6681,10 +6681,10 @@
         <v>215</v>
       </c>
       <c r="S24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V24" s="13">
         <v>5</v>
@@ -6716,10 +6716,10 @@
         <v>230</v>
       </c>
       <c r="S25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T25" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V25" s="13">
         <v>5</v>
@@ -6754,10 +6754,10 @@
         <v>217</v>
       </c>
       <c r="S26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V26" s="13">
         <v>5</v>
@@ -6792,10 +6792,10 @@
         <v>218</v>
       </c>
       <c r="S27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V27" s="13">
         <v>5</v>
@@ -6830,10 +6830,10 @@
         <v>260</v>
       </c>
       <c r="S28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V28" s="13">
         <v>4.5999999999999996</v>
@@ -6868,10 +6868,10 @@
         <v>261</v>
       </c>
       <c r="S29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T29" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V29" s="13">
         <v>4.3</v>
@@ -6900,10 +6900,10 @@
         <v>262</v>
       </c>
       <c r="S30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T30" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V30" s="13">
         <v>5</v>
@@ -6938,10 +6938,10 @@
         <v>283</v>
       </c>
       <c r="S31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T31" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V31" s="13">
         <v>3.2</v>
@@ -6986,10 +6986,10 @@
       </c>
       <c r="N32" s="3"/>
       <c r="S32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T32" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V32" s="13">
         <v>4.2</v>
@@ -7030,10 +7030,10 @@
         <v>296</v>
       </c>
       <c r="S33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T33" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V33" s="13">
         <v>4.9000000000000004</v>
@@ -7078,10 +7078,10 @@
       </c>
       <c r="N34" s="3"/>
       <c r="S34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T34" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V34" s="13">
         <v>5</v>
@@ -7116,10 +7116,10 @@
         <v>324</v>
       </c>
       <c r="S35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T35" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V35" s="13">
         <v>5</v>
@@ -7148,10 +7148,10 @@
         <v>309</v>
       </c>
       <c r="S36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T36" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="20" customHeight="1">
@@ -7183,10 +7183,10 @@
         <v>331</v>
       </c>
       <c r="S37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T37" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V37" s="13">
         <v>3.6</v>
@@ -7215,10 +7215,10 @@
         <v>334</v>
       </c>
       <c r="S38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T38" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="20" customHeight="1">
@@ -7250,10 +7250,10 @@
         <v>54</v>
       </c>
       <c r="S39" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T39" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V39" s="13">
         <v>4.3</v>
@@ -7288,10 +7288,10 @@
         <v>342</v>
       </c>
       <c r="S40" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T40" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V40" s="13">
         <v>5</v>
@@ -7326,10 +7326,10 @@
         <v>361</v>
       </c>
       <c r="S41" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T41" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V41" s="13">
         <v>4.8</v>
@@ -7371,10 +7371,10 @@
       </c>
       <c r="N42" s="14"/>
       <c r="S42" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T42" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V42" s="13">
         <v>4.9000000000000004</v>
@@ -7412,10 +7412,10 @@
         <v>415</v>
       </c>
       <c r="S43" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T43" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V43" s="13">
         <v>4.3</v>
@@ -7450,10 +7450,10 @@
         <v>420</v>
       </c>
       <c r="S44" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T44" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V44" s="13">
         <v>2.5</v>
@@ -7491,10 +7491,10 @@
         <v>426</v>
       </c>
       <c r="S45" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T45" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V45" s="13">
         <v>5</v>
@@ -7536,10 +7536,10 @@
       </c>
       <c r="N46" s="3"/>
       <c r="S46" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T46" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V46" s="13">
         <v>4.9000000000000004</v>
@@ -7577,10 +7577,10 @@
         <v>439</v>
       </c>
       <c r="S47" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T47" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V47" s="13">
         <v>5</v>
@@ -7615,10 +7615,10 @@
         <v>404</v>
       </c>
       <c r="S48" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T48" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V48" s="13">
         <v>4.4000000000000004</v>
@@ -7653,10 +7653,10 @@
         <v>449</v>
       </c>
       <c r="S49" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T49" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V49" s="13">
         <v>4.2</v>
@@ -7689,10 +7689,10 @@
         <v>453</v>
       </c>
       <c r="S50" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T50" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V50" s="13">
         <v>4.8</v>
@@ -7733,10 +7733,10 @@
         <v>460</v>
       </c>
       <c r="S51" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T51" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V51" s="13">
         <v>2.2999999999999998</v>
@@ -7777,10 +7777,10 @@
         <v>466</v>
       </c>
       <c r="S52" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T52" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V52" s="13">
         <v>5</v>
@@ -7818,10 +7818,10 @@
         <v>283</v>
       </c>
       <c r="S53" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T53" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V53" s="13">
         <v>4.4000000000000004</v>
@@ -7856,10 +7856,10 @@
         <v>408</v>
       </c>
       <c r="S54" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T54" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V54" s="13">
         <v>3</v>
@@ -7897,10 +7897,10 @@
         <v>482</v>
       </c>
       <c r="S55" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T55" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V55" s="13">
         <v>5</v>
@@ -7938,10 +7938,10 @@
         <v>487</v>
       </c>
       <c r="S56" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T56" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="X56" s="3" t="s">
         <v>483</v>
@@ -7973,10 +7973,10 @@
         <v>410</v>
       </c>
       <c r="S57" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T57" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V57" s="13">
         <v>5</v>
@@ -8014,10 +8014,10 @@
         <v>500</v>
       </c>
       <c r="S58" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T58" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>494</v>
@@ -8049,10 +8049,10 @@
         <v>510</v>
       </c>
       <c r="S59" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T59" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V59" s="13">
         <v>3</v>
@@ -8087,10 +8087,10 @@
         <v>334</v>
       </c>
       <c r="S60" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T60" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V60" s="13">
         <v>2.1</v>
@@ -8128,10 +8128,10 @@
         <v>547</v>
       </c>
       <c r="S61" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T61" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V61" s="13">
         <v>4.0999999999999996</v>
@@ -8163,10 +8163,10 @@
         <v>528</v>
       </c>
       <c r="S62" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T62" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V62" s="13">
         <v>5</v>
@@ -8204,10 +8204,10 @@
         <v>54</v>
       </c>
       <c r="S63" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T63" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V63" s="13">
         <v>3.3</v>
@@ -8254,10 +8254,10 @@
         <v>563</v>
       </c>
       <c r="S64" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T64" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V64" s="13">
         <v>4.4000000000000004</v>
@@ -8292,10 +8292,10 @@
         <v>530</v>
       </c>
       <c r="S65" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T65" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V65" s="13">
         <v>5</v>
@@ -8330,10 +8330,10 @@
         <v>576</v>
       </c>
       <c r="S66" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T66" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V66" s="13">
         <v>5</v>
@@ -8368,10 +8368,10 @@
         <v>501</v>
       </c>
       <c r="S67" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T67" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V67" s="13">
         <v>4.9000000000000004</v>
@@ -8406,10 +8406,10 @@
         <v>584</v>
       </c>
       <c r="S68" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T68" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V68" s="13">
         <v>5</v>
@@ -8444,10 +8444,10 @@
         <v>361</v>
       </c>
       <c r="S69" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T69" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V69" s="13">
         <v>5</v>
@@ -8485,10 +8485,10 @@
         <v>54</v>
       </c>
       <c r="S70" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T70" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V70" s="13">
         <v>3.3</v>
@@ -8523,10 +8523,10 @@
         <v>593</v>
       </c>
       <c r="S71" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T71" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V71" s="13">
         <v>5</v>
@@ -8558,10 +8558,10 @@
         <v>595</v>
       </c>
       <c r="S72" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T72" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V72" s="13">
         <v>5</v>
@@ -8596,10 +8596,10 @@
         <v>653</v>
       </c>
       <c r="S73" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T73" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V73" s="13">
         <v>4.3</v>
@@ -8637,10 +8637,10 @@
         <v>776</v>
       </c>
       <c r="S74" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T74" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V74" s="13">
         <v>4.0999999999999996</v>
@@ -8678,10 +8678,10 @@
         <v>781</v>
       </c>
       <c r="S75" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T75" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V75" s="13">
         <v>4.7</v>
@@ -8719,10 +8719,10 @@
         <v>786</v>
       </c>
       <c r="S76" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T76" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T76" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V76" s="13">
         <v>3.6</v>
@@ -8760,10 +8760,10 @@
         <v>792</v>
       </c>
       <c r="S77" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T77" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T77" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V77" s="13">
         <v>5</v>
@@ -8801,10 +8801,10 @@
         <v>798</v>
       </c>
       <c r="S78" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T78" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V78" s="13">
         <v>4</v>
@@ -8842,10 +8842,10 @@
         <v>804</v>
       </c>
       <c r="S79" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T79" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V79" s="13">
         <v>5</v>
@@ -8880,10 +8880,10 @@
         <v>510</v>
       </c>
       <c r="S80" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T80" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V80" s="13">
         <v>1</v>
@@ -8921,10 +8921,10 @@
         <v>814</v>
       </c>
       <c r="S81" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T81" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T81" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V81" s="13">
         <v>4.9000000000000004</v>
@@ -8962,10 +8962,10 @@
         <v>820</v>
       </c>
       <c r="S82" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T82" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T82" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V82" s="13">
         <v>4.8</v>
@@ -9003,10 +9003,10 @@
         <v>825</v>
       </c>
       <c r="S83" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T83" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V83" s="13">
         <v>4.4000000000000004</v>
@@ -9044,10 +9044,10 @@
         <v>831</v>
       </c>
       <c r="S84" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T84" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V84" s="13">
         <v>4.7</v>
@@ -9085,10 +9085,10 @@
         <v>838</v>
       </c>
       <c r="S85" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T85" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V85" s="13">
         <v>4</v>
@@ -9120,10 +9120,10 @@
         <v>660</v>
       </c>
       <c r="S86" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T86" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V86" s="13">
         <v>3.7</v>
@@ -9158,10 +9158,10 @@
         <v>661</v>
       </c>
       <c r="S87" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T87" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V87" s="13">
         <v>4.5999999999999996</v>
@@ -9199,10 +9199,10 @@
         <v>853</v>
       </c>
       <c r="S88" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T88" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T88" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V88" s="13">
         <v>4.3</v>
@@ -9240,10 +9240,10 @@
         <v>858</v>
       </c>
       <c r="S89" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T89" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T89" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V89" s="13">
         <v>5</v>
@@ -9281,10 +9281,10 @@
         <v>864</v>
       </c>
       <c r="S90" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T90" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V90" s="13">
         <v>3.9</v>
@@ -9322,10 +9322,10 @@
         <v>869</v>
       </c>
       <c r="S91" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T91" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T91" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V91" s="13">
         <v>4</v>
@@ -9363,10 +9363,10 @@
         <v>557</v>
       </c>
       <c r="S92" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T92" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T92" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V92" s="13">
         <v>4.5</v>
@@ -9404,10 +9404,10 @@
         <v>879</v>
       </c>
       <c r="S93" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T93" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T93" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V93" s="13">
         <v>4.0999999999999996</v>
@@ -9445,10 +9445,10 @@
         <v>884</v>
       </c>
       <c r="S94" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T94" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T94" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V94" s="13">
         <v>5</v>
@@ -9483,10 +9483,10 @@
         <v>666</v>
       </c>
       <c r="S95" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T95" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T95" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V95" s="13">
         <v>3.7</v>
@@ -9524,10 +9524,10 @@
         <v>895</v>
       </c>
       <c r="S96" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T96" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T96" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V96" s="13">
         <v>5</v>
@@ -9565,10 +9565,10 @@
         <v>901</v>
       </c>
       <c r="S97" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T97" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T97" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V97" s="13">
         <v>4.4000000000000004</v>
@@ -9606,10 +9606,10 @@
         <v>906</v>
       </c>
       <c r="S98" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T98" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T98" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V98" s="13">
         <v>5</v>
@@ -9656,10 +9656,10 @@
         <v>913</v>
       </c>
       <c r="S99" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T99" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T99" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V99" s="13">
         <v>5</v>
@@ -9691,10 +9691,10 @@
         <v>671</v>
       </c>
       <c r="S100" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T100" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T100" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V100" s="13">
         <v>4</v>
@@ -9732,10 +9732,10 @@
         <v>175</v>
       </c>
       <c r="S101" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T101" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T101" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V101" s="13">
         <v>4.0999999999999996</v>
@@ -9770,10 +9770,10 @@
         <v>673</v>
       </c>
       <c r="S102" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T102" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T102" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V102" s="13">
         <v>4.5999999999999996</v>
@@ -9811,10 +9811,10 @@
         <v>930</v>
       </c>
       <c r="S103" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T103" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T103" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V103" s="13">
         <v>4.9000000000000004</v>
@@ -9855,10 +9855,10 @@
         <v>938</v>
       </c>
       <c r="S104" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T104" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T104" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V104" s="13">
         <v>5</v>
@@ -9896,10 +9896,10 @@
         <v>944</v>
       </c>
       <c r="S105" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T105" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T105" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V105" s="13">
         <v>4.9000000000000004</v>
@@ -9934,10 +9934,10 @@
         <v>677</v>
       </c>
       <c r="S106" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T106" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T106" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V106" s="13">
         <v>5</v>
@@ -9975,10 +9975,10 @@
         <v>961</v>
       </c>
       <c r="S107" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T107" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T107" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V107" s="13">
         <v>4.0999999999999996</v>
@@ -10019,10 +10019,10 @@
         <v>959</v>
       </c>
       <c r="S108" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T108" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T108" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V108" s="13">
         <v>4.7</v>
@@ -10054,10 +10054,10 @@
         <v>680</v>
       </c>
       <c r="S109" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T109" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T109" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="X109" s="2" t="s">
         <v>962</v>
@@ -10092,10 +10092,10 @@
         <v>971</v>
       </c>
       <c r="S110" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T110" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T110" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V110" s="13">
         <v>4.4000000000000004</v>
@@ -10133,10 +10133,10 @@
         <v>976</v>
       </c>
       <c r="S111" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T111" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T111" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V111" s="13">
         <v>3.9</v>
@@ -10174,10 +10174,10 @@
         <v>981</v>
       </c>
       <c r="S112" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T112" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T112" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V112" s="13">
         <v>3.4</v>
@@ -10221,10 +10221,10 @@
         <v>989</v>
       </c>
       <c r="S113" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T113" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T113" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V113" s="13">
         <v>4.9000000000000004</v>
@@ -10262,10 +10262,10 @@
         <v>995</v>
       </c>
       <c r="S114" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T114" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T114" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V114" s="13">
         <v>4.4000000000000004</v>
@@ -10297,10 +10297,10 @@
         <v>684</v>
       </c>
       <c r="S115" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T115" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T115" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V115" s="13">
         <v>3</v>
@@ -10335,10 +10335,10 @@
         <v>1003</v>
       </c>
       <c r="S116" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T116" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T116" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="X116" s="2" t="s">
         <v>999</v>
@@ -10370,10 +10370,10 @@
         <v>686</v>
       </c>
       <c r="S117" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T117" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T117" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V117" s="13">
         <v>3.3</v>
@@ -10411,10 +10411,10 @@
         <v>1014</v>
       </c>
       <c r="S118" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T118" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T118" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V118" s="13">
         <v>4.7</v>
@@ -10443,10 +10443,10 @@
         <v>688</v>
       </c>
       <c r="S119" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T119" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T119" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V119" s="13">
         <v>3.1</v>
@@ -10478,10 +10478,10 @@
         <v>689</v>
       </c>
       <c r="S120" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T120" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T120" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V120" s="13">
         <v>4.2</v>
@@ -10516,10 +10516,10 @@
         <v>690</v>
       </c>
       <c r="S121" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T121" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T121" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V121" s="13">
         <v>4.4000000000000004</v>
@@ -10557,10 +10557,10 @@
         <v>1031</v>
       </c>
       <c r="S122" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T122" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T122" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V122" s="13">
         <v>5</v>
@@ -10604,10 +10604,10 @@
         <v>1038</v>
       </c>
       <c r="S123" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T123" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T123" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V123" s="13">
         <v>5</v>
@@ -10648,10 +10648,10 @@
         <v>1045</v>
       </c>
       <c r="S124" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T124" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T124" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V124" s="13">
         <v>5</v>
@@ -10689,10 +10689,10 @@
         <v>1052</v>
       </c>
       <c r="S125" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T125" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T125" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V125" s="13">
         <v>4.5</v>
@@ -10730,10 +10730,10 @@
         <v>1058</v>
       </c>
       <c r="S126" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T126" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T126" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V126" s="13">
         <v>4.7</v>
@@ -10774,10 +10774,10 @@
         <v>1065</v>
       </c>
       <c r="S127" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T127" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T127" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V127" s="13">
         <v>5</v>
@@ -10815,10 +10815,10 @@
         <v>1071</v>
       </c>
       <c r="S128" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T128" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T128" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V128" s="13">
         <v>4.8</v>
@@ -10853,10 +10853,10 @@
         <v>697</v>
       </c>
       <c r="S129" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T129" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T129" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V129" s="13">
         <v>4.4000000000000004</v>
@@ -10891,10 +10891,10 @@
         <v>698</v>
       </c>
       <c r="S130" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T130" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T130" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V130" s="13">
         <v>4</v>
@@ -10929,10 +10929,10 @@
         <v>1109</v>
       </c>
       <c r="S131" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T131" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T131" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V131" s="13">
         <v>5</v>
@@ -10970,10 +10970,10 @@
         <v>1136</v>
       </c>
       <c r="S132" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T132" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T132" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V132" s="13">
         <v>5</v>
@@ -11011,10 +11011,10 @@
         <v>1142</v>
       </c>
       <c r="S133" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T133" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T133" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V133" s="13">
         <v>3.9</v>
@@ -11052,10 +11052,10 @@
         <v>1147</v>
       </c>
       <c r="S134" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T134" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T134" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V134" s="13">
         <v>5</v>
@@ -11090,10 +11090,10 @@
         <v>1113</v>
       </c>
       <c r="S135" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T135" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T135" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V135" s="13">
         <v>4.9000000000000004</v>
@@ -11131,10 +11131,10 @@
         <v>1157</v>
       </c>
       <c r="S136" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T136" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T136" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V136" s="13">
         <v>4.9000000000000004</v>
@@ -11172,10 +11172,10 @@
         <v>1162</v>
       </c>
       <c r="S137" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T137" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T137" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V137" s="13">
         <v>5</v>
@@ -11210,10 +11210,10 @@
         <v>1116</v>
       </c>
       <c r="S138" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T138" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T138" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="X138" s="3" t="s">
         <v>1163</v>
@@ -11245,10 +11245,10 @@
         <v>1117</v>
       </c>
       <c r="S139" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T139" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T139" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V139" s="13">
         <v>4.9000000000000004</v>
@@ -11280,10 +11280,10 @@
         <v>1118</v>
       </c>
       <c r="S140" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T140" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T140" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V140" s="13">
         <v>5</v>
@@ -11321,10 +11321,10 @@
         <v>1181</v>
       </c>
       <c r="S141" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T141" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T141" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V141" s="13">
         <v>4.5</v>
@@ -11362,10 +11362,10 @@
         <v>1187</v>
       </c>
       <c r="S142" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T142" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T142" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V142" s="13">
         <v>5</v>
@@ -11403,10 +11403,10 @@
         <v>1193</v>
       </c>
       <c r="S143" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T143" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T143" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V143" s="13">
         <v>4.8</v>
@@ -11441,10 +11441,10 @@
         <v>1198</v>
       </c>
       <c r="S144" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T144" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T144" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V144" s="13">
         <v>4.2</v>
@@ -11482,10 +11482,10 @@
         <v>48</v>
       </c>
       <c r="S145" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T145" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T145" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="V145" s="13">
         <v>4.4000000000000004</v>
@@ -11514,16 +11514,16 @@
         <v>1123</v>
       </c>
       <c r="S146" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T146" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="T146" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{0AD72AED-0E5B-894C-987D-17403B20BB35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576" xr:uid="{0AD72AED-0E5B-894C-987D-17403B20BB35}">
       <formula1>"A7, A8, A9"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11718,7 +11718,7 @@
           <x14:formula1>
             <xm:f>PullDown!$B$1:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>S1:S1048576</xm:sqref>
+          <xm:sqref>T1:T1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BA555F-C766-304B-A06B-1F7113829154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B992D341-222F-964F-ABDD-E1432B2B9366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="-28300" windowWidth="46140" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1209">
   <si>
     <t>address</t>
   </si>
@@ -415,27 +415,7 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>俬樸居研 X 車研</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%E4%BF%AC%E6%A8%B8%E5%B1%85%E7%A0%94+X+%E8%BB%8A%E7%A0%94/@25.0547356,121.3841978,20.52z/data=!4m6!3m5!1s0x3442a77b0c1f2fe7:0xaeb76e4f300db3e9!8m2!3d25.0546979!4d121.384203!16s%2Fg%2F11jzrtf_2n?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區長慶二街11號1樓</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市龜山區長慶二街82號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>0913-827-816</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:00 - 18:00 週六日 公休</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -780,9 +760,6 @@
     <t>S1-022</t>
   </si>
   <si>
-    <t>S1-023</t>
-  </si>
-  <si>
     <t>S1-024</t>
   </si>
   <si>
@@ -795,9 +772,6 @@
     <t>SHO-S1-022.jpeg</t>
   </si>
   <si>
-    <t>SHO-S1-023.jpeg</t>
-  </si>
-  <si>
     <t>SHO-S1-024.jpeg</t>
   </si>
   <si>
@@ -810,9 +784,6 @@
     <t>SHO-S1-022L.jpeg</t>
   </si>
   <si>
-    <t>SHO-S1-023L.jpeg</t>
-  </si>
-  <si>
     <t>SHO-S1-024L.jpeg</t>
   </si>
   <si>
@@ -846,10 +817,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>蓬慶風管工程</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>穀米植研所</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -914,18 +881,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>桃園市龜山區長慶三街 x 號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市龜山區長慶二街 x 號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市龜山區樂學路 x巷x號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>SHO-S1-018L.jpeg</t>
   </si>
   <si>
@@ -1028,10 +983,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>桃園市龜山區樂學路 x 號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.google.com/maps/place/%E8%90%8A%E7%88%BE%E5%AF%8C%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%AD%B8%E5%BA%97/@25.0527254,121.3775009,16z/data=!4m10!1m2!2m1!1z6JCK54i-5a-M6b6c5bGx5qiC5a245bqX!3m6!1s0x3442a74550f86b35:0xf6470748c5621fda!8m2!3d25.0527789!4d121.3833435!15sChjokIrniL7lr4zpvpzlsbHmqILlrbjlupciA4gBAZIBEWNvbnZlbmllbmNlX3N0b3Jl4AEA!16s%2Fg%2F11rty6zbds?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1220,10 +1171,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>桃園市龜山區樂學三路x號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.google.com/maps/place/7-ELEVEN+%E5%AF%8C%E6%95%A6%E9%96%80%E5%B8%82/@25.0519647,121.384031,21z/data=!4m14!1m7!3m6!1s0x3442a717145377f1:0xbaa87fbc45695e1e!2zNy1FTEVWRU4g5a-M5a-T6ZaA5biC!8m2!3d25.0572027!4d121.3812697!16s%2Fg%2F11bzwpm3_t!3m5!1s0x3442a733332cc905:0xe0a7a336ed3a6c06!8m2!3d25.0520839!4d121.384068!16s%2Fg%2F11tnm8xr_r?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -4419,6 +4366,74 @@
   </si>
   <si>
     <t>桃園市龜山區文青路x號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>玖聲音響</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶二街83號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶三街66號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區樂學三路79號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912-528-333</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.argo-deco.com.tw/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶二街 15 號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-3107</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 - 18:00 週三公休 週六日出攤</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區樂學路590巷26號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1-038</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶三街38號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S1-038.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO-S1-038L.jpeg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>O Day 自助洗</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.oday.com.tw/</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -5707,10 +5722,10 @@
   <dimension ref="A1:AA146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A64" sqref="A64:XFD64"/>
+      <selection pane="bottomRight" activeCell="S38" sqref="S38:T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -5784,7 +5799,7 @@
         <v>81</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>18</v>
@@ -5843,13 +5858,13 @@
         <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>34</v>
@@ -5884,13 +5899,13 @@
         <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>34</v>
@@ -5935,7 +5950,7 @@
       </c>
       <c r="N4" s="14"/>
       <c r="S4" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>34</v>
@@ -5976,7 +5991,7 @@
         <v>90</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>34</v>
@@ -6014,7 +6029,7 @@
         <v>76</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>34</v>
@@ -6059,7 +6074,7 @@
       </c>
       <c r="N7" s="3"/>
       <c r="S7" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>34</v>
@@ -6073,7 +6088,7 @@
     </row>
     <row r="8" spans="1:27" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>61</v>
@@ -6082,7 +6097,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>88</v>
@@ -6097,7 +6112,7 @@
         <v>75</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>34</v>
@@ -6111,7 +6126,7 @@
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>1192</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>62</v>
@@ -6120,13 +6135,13 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>1193</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>108</v>
+        <v>1194</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>109</v>
+        <v>1194</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>72</v>
@@ -6135,21 +6150,16 @@
         <v>78</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="13">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>63</v>
@@ -6158,13 +6168,13 @@
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>73</v>
@@ -6173,7 +6183,7 @@
         <v>79</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>34</v>
@@ -6182,46 +6192,46 @@
         <v>5</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>244</v>
+        <v>1202</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N11" s="3"/>
       <c r="S11" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>34</v>
@@ -6232,34 +6242,34 @@
     </row>
     <row r="12" spans="1:27" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>34</v>
@@ -6268,33 +6278,33 @@
         <v>5</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>34</v>
@@ -6305,34 +6315,34 @@
     </row>
     <row r="14" spans="1:27" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>34</v>
@@ -6341,43 +6351,43 @@
         <v>3.4</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="N15" s="3"/>
       <c r="S15" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>34</v>
@@ -6386,39 +6396,39 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>34</v>
@@ -6427,30 +6437,30 @@
         <v>5</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>242</v>
+        <v>1195</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>34</v>
@@ -6461,25 +6471,25 @@
     </row>
     <row r="18" spans="1:24" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>34</v>
@@ -6491,31 +6501,31 @@
     </row>
     <row r="19" spans="1:24" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>34</v>
@@ -6524,30 +6534,30 @@
         <v>5</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>34</v>
@@ -6558,25 +6568,28 @@
     </row>
     <row r="21" spans="1:24" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>243</v>
+        <v>1199</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>1200</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>34</v>
@@ -6587,28 +6600,28 @@
     </row>
     <row r="22" spans="1:24" ht="20" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>34</v>
@@ -6617,39 +6630,39 @@
         <v>5</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="20" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>34</v>
@@ -6658,30 +6671,39 @@
         <v>5</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="20" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>243</v>
+        <v>219</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1201</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>34</v>
@@ -6689,34 +6711,37 @@
       <c r="V24" s="13">
         <v>5</v>
       </c>
+      <c r="X24" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="25" spans="1:24" ht="20" customHeight="1">
       <c r="A25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>34</v>
@@ -6724,37 +6749,37 @@
       <c r="V25" s="13">
         <v>5</v>
       </c>
-      <c r="X25" s="2" t="s">
-        <v>227</v>
+      <c r="X25" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="20" customHeight="1">
       <c r="A26" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>34</v>
@@ -6763,322 +6788,328 @@
         <v>5</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="20" customHeight="1">
       <c r="A27" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V27" s="13">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="20" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V28" s="13">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="20" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>273</v>
+        <v>1197</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>1198</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V29" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="20" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V30" s="13">
-        <v>5</v>
+        <v>3.2</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="20" customHeight="1">
       <c r="A31" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="J31" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>283</v>
-      </c>
+      <c r="N31" s="3"/>
       <c r="S31" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V31" s="13">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="20" customHeight="1">
       <c r="A32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="J32" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="N32" s="3"/>
+        <v>283</v>
+      </c>
       <c r="S32" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V32" s="13">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="20" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="J33" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="N33" s="3"/>
       <c r="S33" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V33" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>292</v>
+        <v>5</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="20" customHeight="1">
       <c r="A34" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="N34" s="3"/>
       <c r="S34" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>34</v>
@@ -7086,136 +7117,130 @@
       <c r="V34" s="13">
         <v>5</v>
       </c>
-      <c r="X34" s="3" t="s">
-        <v>312</v>
+      <c r="X34" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="20" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>323</v>
+        <v>1196</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="13">
-        <v>5</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="36" spans="1:24" ht="20" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>326</v>
+        <v>315</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>309</v>
+        <v>267</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="V36" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="37" spans="1:24" ht="20" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="38" spans="1:24" ht="20" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>332</v>
+        <v>1207</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>302</v>
+        <v>1203</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>333</v>
+        <v>1204</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>307</v>
+        <v>1205</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>334</v>
+        <v>1206</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>1208</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>34</v>
@@ -7223,4301 +7248,4301 @@
     </row>
     <row r="39" spans="1:24" ht="20" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="V39" s="13">
         <v>4.3</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="20" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="V40" s="13">
         <v>5</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="20" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="V41" s="13">
         <v>4.8</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="20" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="N42" s="14"/>
       <c r="S42" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="V42" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="20" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="S43" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V43" s="13">
         <v>4.3</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V44" s="13">
         <v>2.5</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="20" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V45" s="13">
         <v>5</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="20" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="N46" s="3"/>
       <c r="S46" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V46" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="20" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V47" s="13">
         <v>5</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V48" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="20" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V49" s="13">
         <v>4.2</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="20" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="E50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V50" s="13">
         <v>4.8</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="20" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V51" s="13">
         <v>2.2999999999999998</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="20" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V52" s="13">
         <v>5</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="20" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V53" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V54" s="13">
         <v>3</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V55" s="13">
         <v>5</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="20" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V57" s="13">
         <v>5</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="S58" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V59" s="13">
         <v>3</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="V60" s="13">
         <v>2.1</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="V61" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="V62" s="13">
         <v>5</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="V63" s="13">
         <v>3.3</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="V64" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="V65" s="13">
         <v>5</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="V66" s="13">
         <v>5</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="V67" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="20" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="V68" s="13">
         <v>5</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="V69" s="13">
         <v>5</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="V70" s="13">
         <v>3.3</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V71" s="13">
         <v>5</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V72" s="13">
         <v>5</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V73" s="13">
         <v>4.3</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V74" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V75" s="13">
         <v>4.7</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V76" s="13">
         <v>3.6</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V77" s="13">
         <v>5</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V78" s="13">
         <v>4</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V79" s="13">
         <v>5</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V80" s="13">
         <v>1</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V81" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V82" s="13">
         <v>4.8</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V83" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V84" s="13">
         <v>4.7</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V85" s="13">
         <v>4</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V86" s="13">
         <v>3.7</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V87" s="13">
         <v>4.5999999999999996</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V88" s="13">
         <v>4.3</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V89" s="13">
         <v>5</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V90" s="13">
         <v>3.9</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V91" s="13">
         <v>4</v>
       </c>
       <c r="X91" s="3" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V92" s="13">
         <v>4.5</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V93" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V94" s="13">
         <v>5</v>
       </c>
       <c r="X94" s="3" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V95" s="13">
         <v>3.7</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V96" s="13">
         <v>5</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V97" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X97" s="3" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V98" s="13">
         <v>5</v>
       </c>
       <c r="X98" s="3" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V99" s="13">
         <v>5</v>
       </c>
       <c r="X99" s="3" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V100" s="13">
         <v>4</v>
       </c>
       <c r="X100" s="3" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V101" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V102" s="13">
         <v>4.5999999999999996</v>
       </c>
       <c r="X102" s="3" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V103" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V104" s="13">
         <v>5</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V105" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X105" s="3" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V106" s="13">
         <v>5</v>
       </c>
       <c r="X106" s="3" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="J107" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="E107" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>961</v>
-      </c>
       <c r="S107" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V107" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X107" s="3" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V108" s="13">
         <v>4.7</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V110" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V111" s="13">
         <v>3.9</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V112" s="13">
         <v>3.4</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T113" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V113" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V114" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V115" s="13">
         <v>3</v>
       </c>
       <c r="X115" s="3" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T117" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V117" s="13">
         <v>3.3</v>
       </c>
       <c r="X117" s="3" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V118" s="13">
         <v>4.7</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V119" s="13">
         <v>3.1</v>
       </c>
       <c r="X119" s="3" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V120" s="13">
         <v>4.2</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V121" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X121" s="3" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V122" s="13">
         <v>5</v>
       </c>
       <c r="X122" s="3" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T123" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V123" s="13">
         <v>5</v>
       </c>
       <c r="X123" s="3" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V124" s="13">
         <v>5</v>
       </c>
       <c r="X124" s="2" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V125" s="13">
         <v>4.5</v>
       </c>
       <c r="X125" s="3" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V126" s="13">
         <v>4.7</v>
       </c>
       <c r="X126" s="2" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T127" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V127" s="13">
         <v>5</v>
       </c>
       <c r="X127" s="2" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V128" s="13">
         <v>4.8</v>
       </c>
       <c r="X128" s="2" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V129" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X129" s="3" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T130" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V130" s="13">
         <v>4</v>
       </c>
       <c r="X130" s="3" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T131" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V131" s="13">
         <v>5</v>
       </c>
       <c r="X131" s="3" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T132" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V132" s="13">
         <v>5</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T133" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V133" s="13">
         <v>3.9</v>
       </c>
       <c r="X133" s="2" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T134" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V134" s="13">
         <v>5</v>
       </c>
       <c r="X134" s="2" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>1151</v>
+        <v>1137</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T135" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V135" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X135" s="2" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V136" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1160</v>
+        <v>1146</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>1162</v>
+        <v>1148</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V137" s="13">
         <v>5</v>
       </c>
       <c r="X137" s="2" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="X138" s="3" t="s">
-        <v>1163</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V139" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X139" s="2" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V140" s="13">
         <v>5</v>
       </c>
       <c r="X140" s="2" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T141" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V141" s="13">
         <v>4.5</v>
       </c>
       <c r="X141" s="3" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T142" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V142" s="13">
         <v>5</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T143" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V143" s="13">
         <v>4.8</v>
       </c>
       <c r="X143" s="2" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T144" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V144" s="13">
         <v>4.2</v>
       </c>
       <c r="X144" s="2" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>48</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T145" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="V145" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="T146" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -11539,166 +11564,167 @@
     <hyperlink ref="J7" r:id="rId9" xr:uid="{4C351361-9BFF-0640-A585-91C3035E9C06}"/>
     <hyperlink ref="M7" r:id="rId10" xr:uid="{955A891A-AFD3-3640-8762-0BDD0FF4A6EF}"/>
     <hyperlink ref="I7" r:id="rId11" xr:uid="{6867B04A-5973-4B44-8EC2-57B191B828B1}"/>
-    <hyperlink ref="X9" r:id="rId12" display="https://www.google.com/maps/place/%E4%BF%AC%E6%A8%B8%E5%B1%85%E7%A0%94+X+%E8%BB%8A%E7%A0%94/@25.0547356,121.3841978,20.52z/data=!4m6!3m5!1s0x3442a77b0c1f2fe7:0xaeb76e4f300db3e9!8m2!3d25.0546979!4d121.384203!16s%2Fg%2F11jzrtf_2n?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{62F04EB3-68E0-2143-A758-1D4B43E974F3}"/>
-    <hyperlink ref="X10" r:id="rId13" xr:uid="{96514053-DF32-C544-BAB6-198E5313EB02}"/>
-    <hyperlink ref="I11" r:id="rId14" xr:uid="{FFE5441A-93CB-404A-B8D7-379AA7CBE964}"/>
-    <hyperlink ref="M11" r:id="rId15" xr:uid="{3076B67D-6515-DA4D-8B35-D070FE8B794B}"/>
-    <hyperlink ref="I12" r:id="rId16" xr:uid="{364BA29F-22E3-1C40-9631-D20EA9808686}"/>
-    <hyperlink ref="X14" r:id="rId17" display="https://www.google.com/maps/place/%E8%9D%A6%E7%9A%AE%E5%BA%97%E5%88%B0%E5%BA%97+%E9%BE%9C%E5%B1%B1%E9%95%B7%E6%85%B6%E5%BA%97/@25.0551508,121.3812764,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7f0e09c4375:0x697cd0f6a3724506!8m2!3d25.0551508!4d121.3838567!16s%2Fg%2F11sh3m_2c8?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{A3EDBE3D-AA66-7046-8623-A1C0292911EA}"/>
-    <hyperlink ref="I14" r:id="rId18" xr:uid="{4949FFBE-955A-0F4B-881B-CDE2A6A75146}"/>
-    <hyperlink ref="J15" r:id="rId19" xr:uid="{AB5F3D25-A47A-0D46-879C-E3E3A3F6761A}"/>
-    <hyperlink ref="M15" r:id="rId20" xr:uid="{8E67B9E8-FFCE-D146-8224-CE9387670EA3}"/>
-    <hyperlink ref="X16" r:id="rId21" display="https://www.google.com/maps/place/%E5%A1%97%E6%BC%BE%E8%A8%AD%E8%A8%88+%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%89%B9%E6%AE%8A%E5%A1%97%E6%96%99/@25.0552608,121.3812827,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7220fe379c3:0xc3d36fa73f82017!8m2!3d25.055256!4d121.3838576!16s%2Fg%2F11sfpzg1pm?authuser=0&amp;entry=ttu" xr:uid="{05C1D052-BC48-B048-AC2F-6A7F62A996FE}"/>
-    <hyperlink ref="I16" r:id="rId22" xr:uid="{D7F7B8AF-52C6-354A-A9A2-3961A3DF8D34}"/>
-    <hyperlink ref="X19" r:id="rId23" display="https://www.google.com/maps/place/%E8%8A%B8%E8%88%9E%E8%B9%88%E5%B7%A5%E4%BD%9C%E5%AE%A4+Yun+Ballet+Studio/@25.053901,121.3803289,17z/data=!3m1!4b1!4m6!3m5!1s0xa750f6762f5c27cb:0xb4225fe8976e8fc3!8m2!3d25.053901!4d121.3829038!16s%2Fg%2F11vf6x3my8?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{889D8671-D7E8-E645-AB3F-45596B3E8DB6}"/>
-    <hyperlink ref="X22" r:id="rId24" display="https://www.google.com/maps/place/%E7%B5%95%E7%BE%8E%E7%B3%BB%E7%B5%B1%E6%AB%83%E7%AA%97%E9%A3%BE/@25.0544516,121.3789649,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7f3775533ff:0x1f4c3b0a342d76e8!8m2!3d25.0544517!4d121.3835783!16s%2Fg%2F11v5ss9nx7?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DFED8583-A64B-F34A-B59A-37C1694A5233}"/>
-    <hyperlink ref="X23" r:id="rId25" display="https://www.google.com/maps/place/%E5%90%8C%E6%AD%A5%E5%96%AE%E8%BB%8A+sync+bike+shop/@25.0543625,121.3811047,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a756ae07427d:0x90d3740e27d8c0b7!8m2!3d25.0543625!4d121.3836796!16s%2Fg%2F11n06jldmh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{F879BDCF-F34F-084E-B0A9-73FFCB2A2C2E}"/>
-    <hyperlink ref="J23" r:id="rId26" xr:uid="{065CFE48-46D5-BA4A-9025-58932C44ADF7}"/>
-    <hyperlink ref="I25" r:id="rId27" xr:uid="{53307232-4BC6-4F43-95D0-4BF828FC460D}"/>
-    <hyperlink ref="X26" r:id="rId28" display="https://www.google.com/maps/place/%E6%86%B2%E5%85%89%E9%95%B7%E5%BA%9A%E9%A4%A8%EF%BC%88%E8%B7%86%E6%8B%B3%E9%81%93%EF%BC%89/@25.0551136,121.3802013,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a763bb9e83e5:0xff17ac03a1baf17e!8m2!3d25.0551137!4d121.3848147!16s%2Fg%2F11ryhhx9by?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{112180B2-7E41-1143-9829-D13AC1CE94D8}"/>
-    <hyperlink ref="X27" r:id="rId29" display="https://www.google.com/maps/place/%E6%9E%97%E5%8F%A3A7%E7%AA%97%E7%B0%BE%E9%A6%96%E9%81%B8-%E4%BA%AE%E9%BB%9E%E7%AA%97%E7%B0%BE/@25.0552273,121.3820605,17z/data=!3m1!4b1!4m6!3m5!1s0x346802b2ceac01f3:0xd3b176cd02546f53!8m2!3d25.0552273!4d121.3846354!16s%2Fg%2F11f2wlw3kf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D580960D-6267-9246-A76C-0536108A6580}"/>
-    <hyperlink ref="X28" r:id="rId30" display="https://www.google.com/maps/place/%E6%97%BA%E6%B3%B0%E8%A1%8C+%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8/@25.0532034,121.3805337,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7164cc6c21f:0xe91740fc88dcaddd!8m2!3d25.0531986!4d121.383114!16s%2Fg%2F11bwkfzg2q?authuser=0&amp;entry=ttu" xr:uid="{C3090E63-D99C-CC48-B13A-3CCBDC81CC80}"/>
-    <hyperlink ref="X29" r:id="rId31" display="https://www.google.com/maps/place/%E7%A6%8F%E7%91%9E%E7%85%A6%E7%94%9F%E9%AE%AE%E8%94%AC%E9%A3%9F%E5%9D%8A/@25.0531734,121.380576,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7cd93fbd391:0x11c3f256642ff786!8m2!3d25.0531734!4d121.3831563!16s%2Fg%2F11k3ljzgg7?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{11C6B1E2-58AA-154E-AC8C-DB8A2854786E}"/>
-    <hyperlink ref="I31" r:id="rId32" xr:uid="{FF9DA92F-E26A-D445-8C8D-3794C221E01B}"/>
-    <hyperlink ref="J32" r:id="rId33" xr:uid="{C10A4545-9377-3C4E-BE1C-7FBE1E75504A}"/>
-    <hyperlink ref="I32" r:id="rId34" xr:uid="{76BDA141-93CD-F540-BB2E-11F0C2067CB6}"/>
-    <hyperlink ref="M32" r:id="rId35" xr:uid="{CA21C9E5-4BD1-A24B-B662-2BD0CC9F8A0E}"/>
-    <hyperlink ref="J33" r:id="rId36" xr:uid="{DD593690-55A8-3446-8AAF-D95842951D35}"/>
-    <hyperlink ref="I33" r:id="rId37" xr:uid="{DE898033-B421-7743-91E1-53A7D117EFB4}"/>
-    <hyperlink ref="X34" r:id="rId38" xr:uid="{28490A48-C3C7-1D4B-AA8C-1A493E5FCCF4}"/>
-    <hyperlink ref="J34" r:id="rId39" xr:uid="{8D7450AC-8352-8C48-9774-7C5BA656C195}"/>
-    <hyperlink ref="L34" r:id="rId40" xr:uid="{30ED5E66-F1E3-CE4E-A307-0F74FD474E9E}"/>
-    <hyperlink ref="M34" r:id="rId41" xr:uid="{B77B6FBE-6BD0-8644-8E1E-3E4EFF013B1F}"/>
-    <hyperlink ref="K34" r:id="rId42" xr:uid="{B43095DF-0400-6644-B4E1-2DF521F14CFA}"/>
-    <hyperlink ref="I37" r:id="rId43" xr:uid="{9F43B0B8-C4E4-4E4F-B23F-4DEB93068F3F}"/>
-    <hyperlink ref="X39" r:id="rId44" display="https://www.google.com/maps/place/7-ELEVEn+%E6%81%86%E8%80%80%E9%96%80%E5%B8%82/@25.0511193,121.3854235,19z/data=!4m10!1m2!2m1!1zICA1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluII!3m6!1s0x3442a710660c0e3f:0xe1cbe1f4c31d5321!8m2!3d25.0511193!4d121.3860686!15sCiE1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluIKSARFjb252ZW5pZW5jZV9zdG9yZeABAA!16s%2Fg%2F11khbk1kpc?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75748410-2AD7-664F-B0B6-D819D6D67978}"/>
-    <hyperlink ref="I39" r:id="rId45" xr:uid="{4C93D4DC-7DAB-CA46-A756-AE8876340583}"/>
-    <hyperlink ref="X40" r:id="rId46" display="https://www.google.com/maps/place/%E6%9A%89%E8%88%8D%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88/@25.0508867,121.3846503,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7557c00a6d7:0x4f4e2ffda3810d37!8m2!3d25.0508867!4d121.3860918!16s%2Fg%2F11tk1h2fjh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{904E7BDE-E167-5349-8B6D-82FC2094D9FF}"/>
-    <hyperlink ref="X41" r:id="rId47" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E7%94%A2%E5%B0%88%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0505483,121.384404,18z/data=!3m1!4b1!4m6!3m5!1s0x3442a71b48dee059:0xd6b3104a85d226af!8m2!3d25.0505483!4d121.3856941!16s%2Fg%2F11rr741j5d?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75FBE7BF-B97C-D34B-8BDB-D5C83CEB9000}"/>
-    <hyperlink ref="X42" r:id="rId48" display="https://www.google.com/maps/place/%E9%81%87%E8%A6%8Bcat%E5%AF%B5%E7%89%A9%E7%94%9F%E6%B4%BB%E9%A4%A8/@25.0509674,121.3663437,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b360d5c0ff:0x3e46566d20136671!8m2!3d25.0509685!4d121.3847761!16s%2Fg%2F11rvbkl88f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B73E1845-E276-274C-8CD5-D5DEDD23662B}"/>
-    <hyperlink ref="J42" r:id="rId49" xr:uid="{1BC555FA-0CE1-3B40-B2B7-FB2E85677745}"/>
-    <hyperlink ref="M42" r:id="rId50" xr:uid="{747765C9-2842-6748-8C06-D8485EE46751}"/>
-    <hyperlink ref="X43" r:id="rId51" xr:uid="{55726C01-F539-E340-A76C-4AE013C3080F}"/>
-    <hyperlink ref="J43" r:id="rId52" xr:uid="{0AEFEEF3-2FF7-E54D-9469-9C4C29E97E04}"/>
-    <hyperlink ref="X45" r:id="rId53" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E8%8F%AF%E4%BA%9E%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0489506,121.3810445,19.41z/data=!4m6!3m5!1s0x3442a7b07b9629fd:0xa3444455f47f86ce!8m2!3d25.0490978!4d121.3813163!16s%2Fg%2F11rr2pm5nm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1263B492-7FAB-6742-9E89-B6D7E71A465A}"/>
-    <hyperlink ref="I45" r:id="rId54" xr:uid="{212CC313-E8D9-6748-90FF-8160EE52E13F}"/>
-    <hyperlink ref="X46" r:id="rId55" display="https://www.google.com/maps/place/%E6%84%9F%E8%AC%9D%E4%BD%A0%E5%AF%B5%E7%89%A9%E7%BE%8E%E5%AE%B9/@25.0491665,121.3810191,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7691618b3dd:0xb2fc1c177cfac444!8m2!3d25.0491665!4d121.3816642!16s%2Fg%2F11smzjb0gn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{90C852DC-4727-9040-8BD6-29842D1C7530}"/>
-    <hyperlink ref="J46" r:id="rId56" xr:uid="{FC2CA56B-604E-7846-AE29-5E676CCB71DC}"/>
-    <hyperlink ref="M46" r:id="rId57" xr:uid="{DB0E4A87-CAFC-A44C-8F75-56F1B14D6A5E}"/>
-    <hyperlink ref="X47" r:id="rId58" xr:uid="{FD427056-8002-F647-BB5E-6659075A79FF}"/>
-    <hyperlink ref="I47" r:id="rId59" xr:uid="{493E31C1-2A64-1B46-9EC3-65FBB5C87CB2}"/>
-    <hyperlink ref="X48" r:id="rId60" display="https://www.google.com/maps/place/%E9%A0%A4%E5%BA%B7%E4%B8%AD%E8%A5%BF%E8%97%A5%E5%B1%80/@25.0489535,121.363487,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7270c258fe5:0x2a9a98d417608035!8m2!3d25.0489546!4d121.3819194!16s%2Fg%2F1pzqfh7s0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D5D4324D-DD0E-0345-86A6-71FC89BFA1EA}"/>
-    <hyperlink ref="I49" r:id="rId61" xr:uid="{D2AEE762-9505-E04C-A406-4954B57AE6F2}"/>
-    <hyperlink ref="I50" r:id="rId62" xr:uid="{2A8462D1-031C-A34D-8DE0-BF26D98FC758}"/>
-    <hyperlink ref="X51" r:id="rId63" display="https://www.google.com/maps/place/%E4%BD%95%E5%98%89%E4%BB%81%E8%8F%AF%E4%BA%9E%E5%9C%8B%E9%9A%9B%E6%A0%A1/@25.0488667,121.3795007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78023583349:0xdd3575c44d4e2c71!8m2!3d25.0488667!4d121.382081!16s%2Fg%2F11t3436r2x?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7DF457C5-0730-D642-929E-E1A548B3A367}"/>
-    <hyperlink ref="J51" r:id="rId64" xr:uid="{FB25E65E-8DD2-8F47-A451-4BBC135221BC}"/>
-    <hyperlink ref="I51" r:id="rId65" xr:uid="{ABFC42A5-9124-3541-B321-B06932F815B3}"/>
-    <hyperlink ref="X52" r:id="rId66" display="https://www.google.com/maps/place/WattCare+Fitness+%E7%93%A6%E7%89%B9%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0483404,121.3800667,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a74fe8fe9939:0x3ca81031acbca94d!8m2!3d25.0483404!4d121.382647!16s%2Fg%2F11v0xr1k3m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{15384601-23A5-9B47-BD76-93BFC3E59A0A}"/>
-    <hyperlink ref="L52" r:id="rId67" xr:uid="{CA39CE36-DE04-EA42-AA62-E7B61FA800C3}"/>
-    <hyperlink ref="K52" r:id="rId68" xr:uid="{9A62DBB9-16F0-544F-A82E-2E8FA7785D04}"/>
-    <hyperlink ref="I53" r:id="rId69" xr:uid="{CC237B9B-BAB3-9E40-92A7-52CFC95EBE53}"/>
-    <hyperlink ref="X54" r:id="rId70" xr:uid="{AC21E7E1-1BD1-CB4A-BF62-1B43A44664A8}"/>
-    <hyperlink ref="J55" r:id="rId71" xr:uid="{4BB79DB0-9A41-CF4D-87C8-D8EA835B0828}"/>
-    <hyperlink ref="X56" r:id="rId72" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%89%8D%E5%BA%97/@25.0465133,121.3818229,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73091d7bb31:0xafaf4f82b4897dec!8m2!3d25.0465133!4d121.3844032!16s%2Fg%2F11pz9xx493?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{87B56666-A51D-B640-A32F-CBA3F49DBCFC}"/>
-    <hyperlink ref="J56" r:id="rId73" xr:uid="{9362029B-449D-014F-ABF3-0C17D4E6D931}"/>
-    <hyperlink ref="X57" r:id="rId74" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
-    <hyperlink ref="X58" r:id="rId75" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
-    <hyperlink ref="I58" r:id="rId76" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
-    <hyperlink ref="X61" r:id="rId77" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
-    <hyperlink ref="N61" r:id="rId78" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
-    <hyperlink ref="X62" r:id="rId79" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
-    <hyperlink ref="X63" r:id="rId80" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
-    <hyperlink ref="I63" r:id="rId81" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
-    <hyperlink ref="X64" r:id="rId82" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
-    <hyperlink ref="P64" r:id="rId83" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
-    <hyperlink ref="O64" r:id="rId84" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
-    <hyperlink ref="N64" r:id="rId85" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
-    <hyperlink ref="I64" r:id="rId86" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
-    <hyperlink ref="I66" r:id="rId87" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
-    <hyperlink ref="I70" r:id="rId88" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
-    <hyperlink ref="X71" r:id="rId89" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
-    <hyperlink ref="X72" r:id="rId90" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
-    <hyperlink ref="X73" r:id="rId91" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
-    <hyperlink ref="I75" r:id="rId92" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
-    <hyperlink ref="I76" r:id="rId93" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
-    <hyperlink ref="I77" r:id="rId94" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
-    <hyperlink ref="I78" r:id="rId95" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
-    <hyperlink ref="I79" r:id="rId96" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
-    <hyperlink ref="I81" r:id="rId97" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
-    <hyperlink ref="I82" r:id="rId98" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
-    <hyperlink ref="X83" r:id="rId99" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
-    <hyperlink ref="I83" r:id="rId100" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
-    <hyperlink ref="I84" r:id="rId101" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
-    <hyperlink ref="X85" r:id="rId102" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
-    <hyperlink ref="A87" r:id="rId103" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
-    <hyperlink ref="X91" r:id="rId104" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
-    <hyperlink ref="I93" r:id="rId105" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
-    <hyperlink ref="X94" r:id="rId106" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
-    <hyperlink ref="J94" r:id="rId107" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
-    <hyperlink ref="K94" r:id="rId108" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
-    <hyperlink ref="X97" r:id="rId109" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
-    <hyperlink ref="X98" r:id="rId110" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
-    <hyperlink ref="X99" r:id="rId111" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
-    <hyperlink ref="M99" r:id="rId112" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
-    <hyperlink ref="I99" r:id="rId113" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
-    <hyperlink ref="K99" r:id="rId114" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
-    <hyperlink ref="X100" r:id="rId115" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
-    <hyperlink ref="I101" r:id="rId116" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
-    <hyperlink ref="X102" r:id="rId117" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
-    <hyperlink ref="X103" r:id="rId118" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
-    <hyperlink ref="I103" r:id="rId119" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
-    <hyperlink ref="X104" r:id="rId120" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
-    <hyperlink ref="I104" r:id="rId121" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
-    <hyperlink ref="K104" r:id="rId122" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
-    <hyperlink ref="X105" r:id="rId123" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
-    <hyperlink ref="I105" r:id="rId124" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
-    <hyperlink ref="X106" r:id="rId125" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
-    <hyperlink ref="X107" r:id="rId126" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
-    <hyperlink ref="X108" r:id="rId127" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
-    <hyperlink ref="J108" r:id="rId128" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
-    <hyperlink ref="I108" r:id="rId129" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
-    <hyperlink ref="X110" r:id="rId130" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
-    <hyperlink ref="I112" r:id="rId131" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
-    <hyperlink ref="X113" r:id="rId132" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
-    <hyperlink ref="J113" r:id="rId133" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
-    <hyperlink ref="M113" r:id="rId134" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
-    <hyperlink ref="X115" r:id="rId135" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
-    <hyperlink ref="X117" r:id="rId136" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
-    <hyperlink ref="X118" r:id="rId137" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
-    <hyperlink ref="J118" r:id="rId138" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
-    <hyperlink ref="X119" r:id="rId139" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
-    <hyperlink ref="X120" r:id="rId140" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
-    <hyperlink ref="X121" r:id="rId141" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
-    <hyperlink ref="X122" r:id="rId142" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
-    <hyperlink ref="J122" r:id="rId143" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
-    <hyperlink ref="K122" r:id="rId144" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
-    <hyperlink ref="X123" r:id="rId145" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
-    <hyperlink ref="J123" r:id="rId146" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
-    <hyperlink ref="M123" r:id="rId147" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
-    <hyperlink ref="I123" r:id="rId148" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
-    <hyperlink ref="J124" r:id="rId149" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
-    <hyperlink ref="I124" r:id="rId150" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
-    <hyperlink ref="X125" r:id="rId151" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
-    <hyperlink ref="I125" r:id="rId152" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
-    <hyperlink ref="J126" r:id="rId153" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
-    <hyperlink ref="I127" r:id="rId154" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
-    <hyperlink ref="K127" r:id="rId155" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
-    <hyperlink ref="K128" r:id="rId156" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
-    <hyperlink ref="X129" r:id="rId157" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
-    <hyperlink ref="X130" r:id="rId158" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
-    <hyperlink ref="X131" r:id="rId159" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
-    <hyperlink ref="J132" r:id="rId160" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
-    <hyperlink ref="J133" r:id="rId161" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
-    <hyperlink ref="I134" r:id="rId162" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
-    <hyperlink ref="I136" r:id="rId163" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
-    <hyperlink ref="J137" r:id="rId164" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
-    <hyperlink ref="X138" r:id="rId165" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
-    <hyperlink ref="X141" r:id="rId166" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
-    <hyperlink ref="J141" r:id="rId167" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
-    <hyperlink ref="J142" r:id="rId168" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
-    <hyperlink ref="I143" r:id="rId169" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
-    <hyperlink ref="J144" r:id="rId170" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
-    <hyperlink ref="I145" r:id="rId171" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
+    <hyperlink ref="X10" r:id="rId12" xr:uid="{96514053-DF32-C544-BAB6-198E5313EB02}"/>
+    <hyperlink ref="I11" r:id="rId13" xr:uid="{FFE5441A-93CB-404A-B8D7-379AA7CBE964}"/>
+    <hyperlink ref="M11" r:id="rId14" xr:uid="{3076B67D-6515-DA4D-8B35-D070FE8B794B}"/>
+    <hyperlink ref="I12" r:id="rId15" xr:uid="{364BA29F-22E3-1C40-9631-D20EA9808686}"/>
+    <hyperlink ref="X14" r:id="rId16" display="https://www.google.com/maps/place/%E8%9D%A6%E7%9A%AE%E5%BA%97%E5%88%B0%E5%BA%97+%E9%BE%9C%E5%B1%B1%E9%95%B7%E6%85%B6%E5%BA%97/@25.0551508,121.3812764,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7f0e09c4375:0x697cd0f6a3724506!8m2!3d25.0551508!4d121.3838567!16s%2Fg%2F11sh3m_2c8?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{A3EDBE3D-AA66-7046-8623-A1C0292911EA}"/>
+    <hyperlink ref="I14" r:id="rId17" xr:uid="{4949FFBE-955A-0F4B-881B-CDE2A6A75146}"/>
+    <hyperlink ref="J15" r:id="rId18" xr:uid="{AB5F3D25-A47A-0D46-879C-E3E3A3F6761A}"/>
+    <hyperlink ref="M15" r:id="rId19" xr:uid="{8E67B9E8-FFCE-D146-8224-CE9387670EA3}"/>
+    <hyperlink ref="X16" r:id="rId20" display="https://www.google.com/maps/place/%E5%A1%97%E6%BC%BE%E8%A8%AD%E8%A8%88+%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%89%B9%E6%AE%8A%E5%A1%97%E6%96%99/@25.0552608,121.3812827,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7220fe379c3:0xc3d36fa73f82017!8m2!3d25.055256!4d121.3838576!16s%2Fg%2F11sfpzg1pm?authuser=0&amp;entry=ttu" xr:uid="{05C1D052-BC48-B048-AC2F-6A7F62A996FE}"/>
+    <hyperlink ref="I16" r:id="rId21" xr:uid="{D7F7B8AF-52C6-354A-A9A2-3961A3DF8D34}"/>
+    <hyperlink ref="X19" r:id="rId22" display="https://www.google.com/maps/place/%E8%8A%B8%E8%88%9E%E8%B9%88%E5%B7%A5%E4%BD%9C%E5%AE%A4+Yun+Ballet+Studio/@25.053901,121.3803289,17z/data=!3m1!4b1!4m6!3m5!1s0xa750f6762f5c27cb:0xb4225fe8976e8fc3!8m2!3d25.053901!4d121.3829038!16s%2Fg%2F11vf6x3my8?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{889D8671-D7E8-E645-AB3F-45596B3E8DB6}"/>
+    <hyperlink ref="X22" r:id="rId23" display="https://www.google.com/maps/place/%E7%B5%95%E7%BE%8E%E7%B3%BB%E7%B5%B1%E6%AB%83%E7%AA%97%E9%A3%BE/@25.0544516,121.3789649,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7f3775533ff:0x1f4c3b0a342d76e8!8m2!3d25.0544517!4d121.3835783!16s%2Fg%2F11v5ss9nx7?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DFED8583-A64B-F34A-B59A-37C1694A5233}"/>
+    <hyperlink ref="X23" r:id="rId24" display="https://www.google.com/maps/place/%E5%90%8C%E6%AD%A5%E5%96%AE%E8%BB%8A+sync+bike+shop/@25.0543625,121.3811047,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a756ae07427d:0x90d3740e27d8c0b7!8m2!3d25.0543625!4d121.3836796!16s%2Fg%2F11n06jldmh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{F879BDCF-F34F-084E-B0A9-73FFCB2A2C2E}"/>
+    <hyperlink ref="J23" r:id="rId25" xr:uid="{065CFE48-46D5-BA4A-9025-58932C44ADF7}"/>
+    <hyperlink ref="I24" r:id="rId26" xr:uid="{53307232-4BC6-4F43-95D0-4BF828FC460D}"/>
+    <hyperlink ref="X25" r:id="rId27" display="https://www.google.com/maps/place/%E6%86%B2%E5%85%89%E9%95%B7%E5%BA%9A%E9%A4%A8%EF%BC%88%E8%B7%86%E6%8B%B3%E9%81%93%EF%BC%89/@25.0551136,121.3802013,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a763bb9e83e5:0xff17ac03a1baf17e!8m2!3d25.0551137!4d121.3848147!16s%2Fg%2F11ryhhx9by?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{112180B2-7E41-1143-9829-D13AC1CE94D8}"/>
+    <hyperlink ref="X26" r:id="rId28" display="https://www.google.com/maps/place/%E6%9E%97%E5%8F%A3A7%E7%AA%97%E7%B0%BE%E9%A6%96%E9%81%B8-%E4%BA%AE%E9%BB%9E%E7%AA%97%E7%B0%BE/@25.0552273,121.3820605,17z/data=!3m1!4b1!4m6!3m5!1s0x346802b2ceac01f3:0xd3b176cd02546f53!8m2!3d25.0552273!4d121.3846354!16s%2Fg%2F11f2wlw3kf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D580960D-6267-9246-A76C-0536108A6580}"/>
+    <hyperlink ref="X27" r:id="rId29" display="https://www.google.com/maps/place/%E6%97%BA%E6%B3%B0%E8%A1%8C+%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8/@25.0532034,121.3805337,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7164cc6c21f:0xe91740fc88dcaddd!8m2!3d25.0531986!4d121.383114!16s%2Fg%2F11bwkfzg2q?authuser=0&amp;entry=ttu" xr:uid="{C3090E63-D99C-CC48-B13A-3CCBDC81CC80}"/>
+    <hyperlink ref="X28" r:id="rId30" display="https://www.google.com/maps/place/%E7%A6%8F%E7%91%9E%E7%85%A6%E7%94%9F%E9%AE%AE%E8%94%AC%E9%A3%9F%E5%9D%8A/@25.0531734,121.380576,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7cd93fbd391:0x11c3f256642ff786!8m2!3d25.0531734!4d121.3831563!16s%2Fg%2F11k3ljzgg7?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{11C6B1E2-58AA-154E-AC8C-DB8A2854786E}"/>
+    <hyperlink ref="I30" r:id="rId31" xr:uid="{FF9DA92F-E26A-D445-8C8D-3794C221E01B}"/>
+    <hyperlink ref="J31" r:id="rId32" xr:uid="{C10A4545-9377-3C4E-BE1C-7FBE1E75504A}"/>
+    <hyperlink ref="I31" r:id="rId33" xr:uid="{76BDA141-93CD-F540-BB2E-11F0C2067CB6}"/>
+    <hyperlink ref="M31" r:id="rId34" xr:uid="{CA21C9E5-4BD1-A24B-B662-2BD0CC9F8A0E}"/>
+    <hyperlink ref="J32" r:id="rId35" xr:uid="{DD593690-55A8-3446-8AAF-D95842951D35}"/>
+    <hyperlink ref="I32" r:id="rId36" xr:uid="{DE898033-B421-7743-91E1-53A7D117EFB4}"/>
+    <hyperlink ref="X33" r:id="rId37" xr:uid="{28490A48-C3C7-1D4B-AA8C-1A493E5FCCF4}"/>
+    <hyperlink ref="J33" r:id="rId38" xr:uid="{8D7450AC-8352-8C48-9774-7C5BA656C195}"/>
+    <hyperlink ref="L33" r:id="rId39" xr:uid="{30ED5E66-F1E3-CE4E-A307-0F74FD474E9E}"/>
+    <hyperlink ref="M33" r:id="rId40" xr:uid="{B77B6FBE-6BD0-8644-8E1E-3E4EFF013B1F}"/>
+    <hyperlink ref="K33" r:id="rId41" xr:uid="{B43095DF-0400-6644-B4E1-2DF521F14CFA}"/>
+    <hyperlink ref="I36" r:id="rId42" xr:uid="{9F43B0B8-C4E4-4E4F-B23F-4DEB93068F3F}"/>
+    <hyperlink ref="X39" r:id="rId43" display="https://www.google.com/maps/place/7-ELEVEn+%E6%81%86%E8%80%80%E9%96%80%E5%B8%82/@25.0511193,121.3854235,19z/data=!4m10!1m2!2m1!1zICA1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluII!3m6!1s0x3442a710660c0e3f:0xe1cbe1f4c31d5321!8m2!3d25.0511193!4d121.3860686!15sCiE1IOW8teebuOeJhyA3LUVMRVZFbiDmgYbogIDploDluIKSARFjb252ZW5pZW5jZV9zdG9yZeABAA!16s%2Fg%2F11khbk1kpc?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75748410-2AD7-664F-B0B6-D819D6D67978}"/>
+    <hyperlink ref="I39" r:id="rId44" xr:uid="{4C93D4DC-7DAB-CA46-A756-AE8876340583}"/>
+    <hyperlink ref="X40" r:id="rId45" display="https://www.google.com/maps/place/%E6%9A%89%E8%88%8D%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88/@25.0508867,121.3846503,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7557c00a6d7:0x4f4e2ffda3810d37!8m2!3d25.0508867!4d121.3860918!16s%2Fg%2F11tk1h2fjh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{904E7BDE-E167-5349-8B6D-82FC2094D9FF}"/>
+    <hyperlink ref="X41" r:id="rId46" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E7%94%A2%E5%B0%88%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0505483,121.384404,18z/data=!3m1!4b1!4m6!3m5!1s0x3442a71b48dee059:0xd6b3104a85d226af!8m2!3d25.0505483!4d121.3856941!16s%2Fg%2F11rr741j5d?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{75FBE7BF-B97C-D34B-8BDB-D5C83CEB9000}"/>
+    <hyperlink ref="X42" r:id="rId47" display="https://www.google.com/maps/place/%E9%81%87%E8%A6%8Bcat%E5%AF%B5%E7%89%A9%E7%94%9F%E6%B4%BB%E9%A4%A8/@25.0509674,121.3663437,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7b360d5c0ff:0x3e46566d20136671!8m2!3d25.0509685!4d121.3847761!16s%2Fg%2F11rvbkl88f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B73E1845-E276-274C-8CD5-D5DEDD23662B}"/>
+    <hyperlink ref="J42" r:id="rId48" xr:uid="{1BC555FA-0CE1-3B40-B2B7-FB2E85677745}"/>
+    <hyperlink ref="M42" r:id="rId49" xr:uid="{747765C9-2842-6748-8C06-D8485EE46751}"/>
+    <hyperlink ref="X43" r:id="rId50" xr:uid="{55726C01-F539-E340-A76C-4AE013C3080F}"/>
+    <hyperlink ref="J43" r:id="rId51" xr:uid="{0AEFEEF3-2FF7-E54D-9469-9C4C29E97E04}"/>
+    <hyperlink ref="X45" r:id="rId52" display="https://www.google.com/maps/place/%E4%BD%8F%E5%95%86%E6%9E%97%E5%8F%A3A7%E8%8F%AF%E4%BA%9E%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0489506,121.3810445,19.41z/data=!4m6!3m5!1s0x3442a7b07b9629fd:0xa3444455f47f86ce!8m2!3d25.0490978!4d121.3813163!16s%2Fg%2F11rr2pm5nm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1263B492-7FAB-6742-9E89-B6D7E71A465A}"/>
+    <hyperlink ref="I45" r:id="rId53" xr:uid="{212CC313-E8D9-6748-90FF-8160EE52E13F}"/>
+    <hyperlink ref="X46" r:id="rId54" display="https://www.google.com/maps/place/%E6%84%9F%E8%AC%9D%E4%BD%A0%E5%AF%B5%E7%89%A9%E7%BE%8E%E5%AE%B9/@25.0491665,121.3810191,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7691618b3dd:0xb2fc1c177cfac444!8m2!3d25.0491665!4d121.3816642!16s%2Fg%2F11smzjb0gn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{90C852DC-4727-9040-8BD6-29842D1C7530}"/>
+    <hyperlink ref="J46" r:id="rId55" xr:uid="{FC2CA56B-604E-7846-AE29-5E676CCB71DC}"/>
+    <hyperlink ref="M46" r:id="rId56" xr:uid="{DB0E4A87-CAFC-A44C-8F75-56F1B14D6A5E}"/>
+    <hyperlink ref="X47" r:id="rId57" xr:uid="{FD427056-8002-F647-BB5E-6659075A79FF}"/>
+    <hyperlink ref="I47" r:id="rId58" xr:uid="{493E31C1-2A64-1B46-9EC3-65FBB5C87CB2}"/>
+    <hyperlink ref="X48" r:id="rId59" display="https://www.google.com/maps/place/%E9%A0%A4%E5%BA%B7%E4%B8%AD%E8%A5%BF%E8%97%A5%E5%B1%80/@25.0489535,121.363487,15z/data=!3m1!4b1!4m6!3m5!1s0x3442a7270c258fe5:0x2a9a98d417608035!8m2!3d25.0489546!4d121.3819194!16s%2Fg%2F1pzqfh7s0?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D5D4324D-DD0E-0345-86A6-71FC89BFA1EA}"/>
+    <hyperlink ref="I49" r:id="rId60" xr:uid="{D2AEE762-9505-E04C-A406-4954B57AE6F2}"/>
+    <hyperlink ref="I50" r:id="rId61" xr:uid="{2A8462D1-031C-A34D-8DE0-BF26D98FC758}"/>
+    <hyperlink ref="X51" r:id="rId62" display="https://www.google.com/maps/place/%E4%BD%95%E5%98%89%E4%BB%81%E8%8F%AF%E4%BA%9E%E5%9C%8B%E9%9A%9B%E6%A0%A1/@25.0488667,121.3795007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78023583349:0xdd3575c44d4e2c71!8m2!3d25.0488667!4d121.382081!16s%2Fg%2F11t3436r2x?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7DF457C5-0730-D642-929E-E1A548B3A367}"/>
+    <hyperlink ref="J51" r:id="rId63" xr:uid="{FB25E65E-8DD2-8F47-A451-4BBC135221BC}"/>
+    <hyperlink ref="I51" r:id="rId64" xr:uid="{ABFC42A5-9124-3541-B321-B06932F815B3}"/>
+    <hyperlink ref="X52" r:id="rId65" display="https://www.google.com/maps/place/WattCare+Fitness+%E7%93%A6%E7%89%B9%E5%81%A5%E8%BA%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0483404,121.3800667,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a74fe8fe9939:0x3ca81031acbca94d!8m2!3d25.0483404!4d121.382647!16s%2Fg%2F11v0xr1k3m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{15384601-23A5-9B47-BD76-93BFC3E59A0A}"/>
+    <hyperlink ref="L52" r:id="rId66" xr:uid="{CA39CE36-DE04-EA42-AA62-E7B61FA800C3}"/>
+    <hyperlink ref="K52" r:id="rId67" xr:uid="{9A62DBB9-16F0-544F-A82E-2E8FA7785D04}"/>
+    <hyperlink ref="I53" r:id="rId68" xr:uid="{CC237B9B-BAB3-9E40-92A7-52CFC95EBE53}"/>
+    <hyperlink ref="X54" r:id="rId69" xr:uid="{AC21E7E1-1BD1-CB4A-BF62-1B43A44664A8}"/>
+    <hyperlink ref="J55" r:id="rId70" xr:uid="{4BB79DB0-9A41-CF4D-87C8-D8EA835B0828}"/>
+    <hyperlink ref="X56" r:id="rId71" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%89%8D%E5%BA%97/@25.0465133,121.3818229,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73091d7bb31:0xafaf4f82b4897dec!8m2!3d25.0465133!4d121.3844032!16s%2Fg%2F11pz9xx493?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{87B56666-A51D-B640-A32F-CBA3F49DBCFC}"/>
+    <hyperlink ref="J56" r:id="rId72" xr:uid="{9362029B-449D-014F-ABF3-0C17D4E6D931}"/>
+    <hyperlink ref="X57" r:id="rId73" display="https://www.google.com/maps/place/%E8%89%BE%E5%85%92%E6%80%9D%E7%89%B9%E6%89%98%E5%AC%B0%E4%B8%AD%E5%BF%83/@25.0465199,121.3848827,20.06z/data=!4m6!3m5!1s0x3442a70cf7eb8ad5:0xa69078e7f570f39!8m2!3d25.0465118!4d121.3847575!16s%2Fg%2F11s7p7tqh2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{271352F9-38BB-A54D-9CCF-9A33CE170E35}"/>
+    <hyperlink ref="X58" r:id="rId74" display="https://www.google.com/maps/place/%E6%B0%B8%E7%BE%A9%E6%88%BF%E5%B1%8BA7%E9%87%91%E6%8D%B7%E5%B8%82%E5%8A%A0%E7%9B%9F%E5%BA%97/@25.0465206,121.3818235,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7c60c41c00f:0xd6f2b2d860ccd883!8m2!3d25.0465158!4d121.3844038!16s%2Fg%2F11txqr31r9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{9F332248-B04F-DB40-841A-F12AC96D6FD4}"/>
+    <hyperlink ref="I58" r:id="rId75" xr:uid="{B1FF993D-F177-214D-937D-799FE58DF8C0}"/>
+    <hyperlink ref="X61" r:id="rId76" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E60EBB62-D665-8641-A3C1-0F02E606D7C3}"/>
+    <hyperlink ref="N61" r:id="rId77" xr:uid="{751A0BA7-9FC5-ED4C-BF1F-004FFE2401DB}"/>
+    <hyperlink ref="X62" r:id="rId78" xr:uid="{F8DE52B4-CD81-814A-AAAF-8FF4C28912A8}"/>
+    <hyperlink ref="X63" r:id="rId79" xr:uid="{99EFE6A5-C47D-774D-B93F-6BE41C83B53D}"/>
+    <hyperlink ref="I63" r:id="rId80" xr:uid="{F45EB02B-8A97-2F46-82D5-A252020BEC8C}"/>
+    <hyperlink ref="X64" r:id="rId81" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{58E8EDE7-3F49-3044-ABD6-7A8677CAAFD7}"/>
+    <hyperlink ref="P64" r:id="rId82" xr:uid="{BA6406A7-8E82-D54B-95DD-9FFD6CE2F426}"/>
+    <hyperlink ref="O64" r:id="rId83" xr:uid="{C1DD20F5-FC6E-4C41-8795-3E28322AAAD3}"/>
+    <hyperlink ref="N64" r:id="rId84" xr:uid="{40A2371C-E2BE-D647-965C-299CA01A287D}"/>
+    <hyperlink ref="I64" r:id="rId85" xr:uid="{B836917E-2876-0549-B150-8F435E957520}"/>
+    <hyperlink ref="I66" r:id="rId86" xr:uid="{6138BFCE-AA2E-BC4C-91E6-8E7FE2B1D83A}"/>
+    <hyperlink ref="I70" r:id="rId87" xr:uid="{EDD06CA6-D67E-C74E-B75C-820CBDDFF1A3}"/>
+    <hyperlink ref="X71" r:id="rId88" xr:uid="{BFC4F33D-F83B-A04E-982E-2E9411F9AF79}"/>
+    <hyperlink ref="X72" r:id="rId89" xr:uid="{1FD96A22-C522-3F4C-B428-9EF6CBF0ED96}"/>
+    <hyperlink ref="X73" r:id="rId90" display="https://www.google.com/maps/place/%E5%AE%B6%E6%A8%82%E7%A6%8F%E8%B6%85%E5%B8%82+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0399212,121.3877693,17.13z/data=!4m6!3m5!1s0x3442a77a6d0e5b97:0xbc68b10c0ea1a5a5!8m2!3d25.0403799!4d121.3865517!16s%2Fg%2F11rkgkz4rf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{82918853-62EC-EF48-A2FC-D70B4708192D}"/>
+    <hyperlink ref="I75" r:id="rId91" xr:uid="{16F1142A-ED75-0444-8B23-D4391758BEEE}"/>
+    <hyperlink ref="I76" r:id="rId92" xr:uid="{25DA32E8-92D9-3843-B4E1-1FFDFEB23C84}"/>
+    <hyperlink ref="I77" r:id="rId93" xr:uid="{86763BEA-C15E-6047-AC05-F5A9244251CF}"/>
+    <hyperlink ref="I78" r:id="rId94" xr:uid="{C04D18AB-59DA-D841-83BB-DF9FF95F249D}"/>
+    <hyperlink ref="I79" r:id="rId95" xr:uid="{ED30F909-188E-3D42-A45C-BE9FC64B7E36}"/>
+    <hyperlink ref="I81" r:id="rId96" xr:uid="{EF0C4ACC-B3EA-4B46-86BA-BB50FACB20D9}"/>
+    <hyperlink ref="I82" r:id="rId97" xr:uid="{AB61AEB4-684E-0C45-9086-CC82D6A9C139}"/>
+    <hyperlink ref="X83" r:id="rId98" display="https://www.google.com/maps/place/%E5%A4%A7%E5%AE%B6%E6%88%BF%E5%B1%8B+%E6%9E%97%E5%8F%A3A7%E6%8D%B7%E9%81%8B%E5%BA%97/@25.0403377,121.3881114,21z/data=!4m6!3m5!1s0x3442a7fadcdaabad:0x1bf5cdfde14e023!8m2!3d25.0403377!4d121.3882724!16s%2Fg%2F11p77zh7yj?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{3FB74333-B200-A44C-A4C3-F2B1C3E1389F}"/>
+    <hyperlink ref="I83" r:id="rId99" xr:uid="{A0B0B82B-56C7-9B45-8F12-7F6A1D5AA0D0}"/>
+    <hyperlink ref="I84" r:id="rId100" xr:uid="{2860FA48-3BBE-C343-BEE7-98547346BB64}"/>
+    <hyperlink ref="X85" r:id="rId101" display="https://www.google.com/maps/place/%E5%94%90%E7%92%9E%E7%83%98%E7%84%99-A7%E6%96%87%E9%9D%92%E9%96%80%E5%B8%82/@25.0403268,121.3884836,21z/data=!4m6!3m5!1s0x3442a771e34be65f:0x4983b9e81a88c82!8m2!3d25.040369!4d121.388753!16s%2Fg%2F11g81g0z5f?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{64E89E02-9227-B749-86F1-30CAF088D80C}"/>
+    <hyperlink ref="A87" r:id="rId102" display="https://www.google.com/maps/place/%E6%81%86%E7%BE%8E%E7%89%99%E9%86%AB%E8%A8%BA%E6%89%80/@25.0403614,121.3862332,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7aa9ca83447:0x4ed29b438b0a144c!8m2!3d25.0403614!4d121.3888135!16s%2Fg%2F11g4h_n9y9?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{E33DF243-EF6D-E04B-A8BD-33DCC164640C}"/>
+    <hyperlink ref="X91" r:id="rId103" display="https://www.google.com/maps/place/%E5%85%A8%E5%AE%B6%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97+%E9%BE%9C%E5%B1%B1%E6%96%B0%E5%9F%8E%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a771ec76974d:0x29232e49941d84eb!8m2!3d25.0402165!4d121.3890402!16s%2Fg%2F11f31dynzn?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{28BF18C3-BF98-2044-BF67-4938709A6B07}"/>
+    <hyperlink ref="I93" r:id="rId104" xr:uid="{129A7340-23B2-DD4A-ADBD-1D8487DD7838}"/>
+    <hyperlink ref="X94" r:id="rId105" display="https://www.google.com/maps/place/A7+Fitness+%26+Space%E9%81%8B%E5%8B%95%E8%AA%B2%E7%A8%8B%E2%80%A7%E7%A9%BA%E9%96%93/@25.0406138,121.389236,21z/data=!4m6!3m5!1s0x3442a7748a0a4ef9:0x965b2ba2b2dcc872!8m2!3d25.0405779!4d121.3894029!16s%2Fg%2F11n8qcghln?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1DDCB0D9-593A-E14D-9273-C503F8727445}"/>
+    <hyperlink ref="J94" r:id="rId106" xr:uid="{3E59BB41-2879-8E44-8D00-FF3815BEB65E}"/>
+    <hyperlink ref="K94" r:id="rId107" xr:uid="{355F99F0-305F-C947-85F4-365BD617D804}"/>
+    <hyperlink ref="X97" r:id="rId108" display="https://www.google.com/maps/place/%E6%80%A1%E7%99%BE%E5%85%83%E7%B2%BE%E7%B7%BB%E5%89%AA%E9%AB%AE/@25.0389981,121.3897082,19.97z/data=!4m6!3m5!1s0x3442a771cebbbd0d:0x78b93833cc63730e!8m2!3d25.0387611!4d121.3903162!16s%2Fg%2F11fxzb2b8r?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{B720201F-7F8D-1247-B93A-0808E0DD937F}"/>
+    <hyperlink ref="X98" r:id="rId109" xr:uid="{89CD085B-EDDB-AA42-B11D-6636DAAF4506}"/>
+    <hyperlink ref="X99" r:id="rId110" xr:uid="{229AA405-46B8-B94C-BC88-D3E1833ECEF0}"/>
+    <hyperlink ref="M99" r:id="rId111" xr:uid="{EFCD1950-074F-F646-8966-3DB74A7ABB1A}"/>
+    <hyperlink ref="I99" r:id="rId112" xr:uid="{3989E62E-A235-D642-96A5-9783911304D3}"/>
+    <hyperlink ref="K99" r:id="rId113" xr:uid="{84C83395-159B-B847-B7DC-2CE94C4A1CD0}"/>
+    <hyperlink ref="X100" r:id="rId114" xr:uid="{0A6D7484-3F8D-B74B-9D08-0511F222C31B}"/>
+    <hyperlink ref="I101" r:id="rId115" xr:uid="{5A205294-2305-1A47-8916-62FB0501107C}"/>
+    <hyperlink ref="X102" r:id="rId116" display="https://www.google.com/maps/place/SYM%E4%B8%89%E9%99%BD%E6%A9%9F%E8%BB%8A(%E6%8D%B7%E6%8F%9A%E8%BB%8A%E6%A5%AD)/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a738d0f01b97:0x25451130c0a0f873!8m2!3d25.0413649!4d121.3887381!16s%2Fg%2F1q5bs0ltw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7FDCAADD-F024-C34C-8202-C9E6E9F6C2BB}"/>
+    <hyperlink ref="X103" r:id="rId117" display="https://www.google.com/maps/place/%E7%86%8A%E5%A4%A7%E6%95%B8%E4%BD%8D%E8%BC%B8%E5%87%BA%E4%BC%81%E6%A5%AD%E7%A4%BE/@25.0413786,121.3887023,20.21z/data=!4m6!3m5!1s0x3442a746abc2a8d3:0x5706bcf328a2b65c!8m2!3d25.0413552!4d121.3887039!16s%2Fg%2F11px7xj5dw?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{73EFB06B-AE22-1140-90FB-328A61DCCC1D}"/>
+    <hyperlink ref="I103" r:id="rId118" xr:uid="{020AF3E3-0379-504E-9BA8-5EDD40A9CD07}"/>
+    <hyperlink ref="X104" r:id="rId119" display="https://www.google.com/maps/place/%E6%A8%82%E5%B1%85%E9%A9%97%E5%B1%8B-%E6%A1%83%E5%9C%92%E5%BA%97/@25.0417525,121.3877728,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a7818b4928cd:0x9fd51150d57028fa!8m2!3d25.0417525!4d121.3884165!16s%2Fg%2F11t8574wrk?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CC7596E9-5749-D64C-81C8-35EFCADA3BC3}"/>
+    <hyperlink ref="I104" r:id="rId120" xr:uid="{3DA4C242-195F-BE40-A296-6F36686C6268}"/>
+    <hyperlink ref="K104" r:id="rId121" xr:uid="{BEC20021-912E-A64B-9074-4A3627072524}"/>
+    <hyperlink ref="X105" r:id="rId122" display="https://www.google.com/maps/place/%E7%BE%8E%E7%AB%8B%E8%B3%BC%E7%89%A9+MagicZgo%2F%E5%9C%98%E8%B3%BC%E9%9B%BB%E5%95%86/@25.0415422,121.3887867,20.94z/data=!4m6!3m5!1s0x3442a718f0071b8f:0xfb1883fd9a115a77!8m2!3d25.0415459!4d121.3888649!16s%2Fg%2F11q9sph9wl?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{D7CCE77F-4464-A144-9F6B-9D8CD2B36C41}"/>
+    <hyperlink ref="I105" r:id="rId123" xr:uid="{4EB067DE-A4C1-9549-9920-B8283C7179D5}"/>
+    <hyperlink ref="X106" r:id="rId124" display="https://www.google.com/maps/place/%E8%AA%A0%E6%84%8F%E8%97%A5%E5%B1%80/@25.0413084,121.3891916,20.3z/data=!3m1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a7305f6169df:0x5311c453c11c5964!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tlvm73p?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DCA02FB7-A516-8646-A316-029D705324E6}"/>
+    <hyperlink ref="X107" r:id="rId125" display="https://www.google.com/maps/place/%E9%87%87%E5%A5%95%E8%A8%BA%E6%89%80/@25.0415568,121.3885467,19z/data=!3m2!4b1!5s0x3442a7721b415fcd:0x85c95ed2b85048e2!4m6!3m5!1s0x3442a730f5fa768d:0xb9dcf513f16e0df7!8m2!3d25.0415568!4d121.3891904!16s%2Fg%2F1tftz7fp?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{150D5F86-BF45-264C-9307-F1B8B035AECD}"/>
+    <hyperlink ref="X108" r:id="rId126" xr:uid="{6C5C7C47-4018-F948-8594-FCDCF918272D}"/>
+    <hyperlink ref="J108" r:id="rId127" xr:uid="{B06051D7-A05B-004C-93C8-D207F6DDB91F}"/>
+    <hyperlink ref="I108" r:id="rId128" xr:uid="{29CB51CB-9731-6545-870E-FC88C70A7811}"/>
+    <hyperlink ref="X110" r:id="rId129" display="https://www.google.com/maps/place/%E5%BA%B7%E6%98%AF%E7%BE%8E%E8%97%A5%E5%B1%80-%E6%96%87%E9%9D%92%E5%BA%97/@25.039584,121.3905404,19.99z/data=!4m6!3m5!1s0x3442a7a2a426a655:0xb219c887e208a7a2!8m2!3d25.0396091!4d121.3908854!16s%2Fg%2F11jt0pl2y3?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{13FDA868-A0CA-A24C-91EF-B98F587E227F}"/>
+    <hyperlink ref="I112" r:id="rId130" xr:uid="{4974096B-2C97-764B-BC23-2C297D06889D}"/>
+    <hyperlink ref="X113" r:id="rId131" xr:uid="{804E97FA-B5A8-8641-8483-8E9DAB4831F9}"/>
+    <hyperlink ref="J113" r:id="rId132" xr:uid="{26D815C7-B54E-7941-BB37-2C86B29CB0FE}"/>
+    <hyperlink ref="M113" r:id="rId133" xr:uid="{41F93E39-29F5-E045-9EC7-BD69AEDB7BEA}"/>
+    <hyperlink ref="X115" r:id="rId134" xr:uid="{41812497-5E6D-DC42-8491-146500DA834B}"/>
+    <hyperlink ref="X117" r:id="rId135" xr:uid="{7AD878B3-0243-084B-A56D-B0B6B9E6B191}"/>
+    <hyperlink ref="X118" r:id="rId136" display="https://www.google.com/maps/place/%E8%81%B7%E4%BA%BA%E7%9C%BC%E9%8F%A1-%E6%96%87%E9%9D%92%E5%BA%97/@25.0397083,121.3895739,20.36z/data=!4m6!3m5!1s0x3442a771ebfa3ac9:0x162d8f03a0493f8c!8m2!3d25.0395537!4d121.3898836!16s%2Fg%2F11gdc8ssgm?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7D34951C-BAC4-B741-93EA-7AE5FB2C3D42}"/>
+    <hyperlink ref="J118" r:id="rId137" xr:uid="{BEF002A8-F232-5F4F-BD97-FBE646B12967}"/>
+    <hyperlink ref="X119" r:id="rId138" display="https://www.google.com/maps/place/%E5%8F%B0%E7%81%A3%E5%BD%A9%E5%88%B8+(%E9%87%91%E5%B9%B8%E9%81%8B%E5%95%86%E8%A1%8C)/@25.0395572,121.3871234,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771e9896241:0x37c378dd0dd0e557!8m2!3d25.0395572!4d121.3896983!16s%2Fg%2F11f3xj39kr?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1FD99AF4-1D9D-A343-9F84-C7B7949379B3}"/>
+    <hyperlink ref="X120" r:id="rId139" display="https://www.google.com/maps/place/%E7%94%9F%E6%B4%BB%E7%99%BE%E8%B2%A8%EF%BC%8810%E5%85%83%E5%95%86%E5%BA%97%EF%BC%89/@25.0430346,121.3506588,13.95z/data=!4m10!1m2!2m1!1zMTDlhYPllYblupc!3m6!1s0x3442a72295307655:0xe13184b9176ab088!8m2!3d25.0397459!4d121.3892322!15sCgsxMOWFg-WVhuW6l1oPIg0xMCDlhYMg5ZWG5bqXkgEQaG9tZV9nb29kc19zdG9yZeABAA!16s%2Fg%2F11syctwrnh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{7CB1A0AF-1ED3-B548-A049-23E3C37E12F9}"/>
+    <hyperlink ref="X121" r:id="rId140" xr:uid="{8D1283EA-0409-464F-82D8-D069F9E38B14}"/>
+    <hyperlink ref="X122" r:id="rId141" display="https://www.google.com/maps/place/%E8%88%9E%E6%84%9F%E7%A9%BA%E9%96%93%C2%B7%E9%81%8B%E5%8B%95%C2%B7%E5%85%B1%E5%AD%B8/@25.0402167,121.3864505,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7af584f647f:0xfac01b6549e36bc7!8m2!3d25.0402167!4d121.3890254!16s%2Fg%2F11mvvd_t2j?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5C9AD60B-CCFE-3248-8108-3D19064A2E5C}"/>
+    <hyperlink ref="J122" r:id="rId142" xr:uid="{13ED0164-B416-A146-B19B-6D4533FAB2B7}"/>
+    <hyperlink ref="K122" r:id="rId143" xr:uid="{58496EED-BAF4-6E48-A426-CA7E90405122}"/>
+    <hyperlink ref="X123" r:id="rId144" xr:uid="{15864804-50EC-BE41-9C87-6877FCA86563}"/>
+    <hyperlink ref="J123" r:id="rId145" xr:uid="{E8727129-AE4A-F14C-9065-5E6468F7A82C}"/>
+    <hyperlink ref="M123" r:id="rId146" xr:uid="{4EA94AEB-7194-C64E-9097-1D4039AD91E0}"/>
+    <hyperlink ref="I123" r:id="rId147" xr:uid="{89AB668E-EF04-9B4F-88AC-FE29FFB0E835}"/>
+    <hyperlink ref="J124" r:id="rId148" xr:uid="{39EAB862-9778-0B4F-AAAB-B581A17D69D2}"/>
+    <hyperlink ref="I124" r:id="rId149" xr:uid="{82638912-CA6B-6C4D-815D-5112D50C7C05}"/>
+    <hyperlink ref="X125" r:id="rId150" xr:uid="{B0475EEB-B988-7645-835C-B7D0B5EAA79E}"/>
+    <hyperlink ref="I125" r:id="rId151" xr:uid="{00E7232F-0253-A34E-9CBB-397919588728}"/>
+    <hyperlink ref="J126" r:id="rId152" xr:uid="{2905CFDB-EE02-3B42-A85C-0FFD0C2A06B2}"/>
+    <hyperlink ref="I127" r:id="rId153" xr:uid="{F89F69C0-9149-5644-8DEC-42155A592DC2}"/>
+    <hyperlink ref="K127" r:id="rId154" xr:uid="{EF760B58-AFEC-5645-BCC7-B82EBD1A74EC}"/>
+    <hyperlink ref="K128" r:id="rId155" xr:uid="{875ECD03-6B97-944A-9D0E-8ADDC10BD1F1}"/>
+    <hyperlink ref="X129" r:id="rId156" xr:uid="{038C7345-8E35-874E-B2E8-7AACE06ED5D4}"/>
+    <hyperlink ref="X130" r:id="rId157" display="https://www.google.com/maps/place/Citywash+%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E7%9A%87%E7%BF%94%E6%96%87%E9%9D%92/@25.0393799,121.3879843,19.99z/data=!4m6!3m5!1s0x3442a76e2259fabf:0xaf4e5d68407ebb22!8m2!3d25.0391822!4d121.3881052!16s%2Fg%2F11bz_2fftt?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5E829882-6EB0-124A-AB04-5CBE48419267}"/>
+    <hyperlink ref="X131" r:id="rId158" xr:uid="{F54888F7-CE70-3E4E-8EC9-1F99771C1A5E}"/>
+    <hyperlink ref="J132" r:id="rId159" xr:uid="{5689E75B-BB74-7442-A89C-9229F4A533E2}"/>
+    <hyperlink ref="J133" r:id="rId160" xr:uid="{4FB3F492-BB37-5542-A6B1-36D5CA1431CA}"/>
+    <hyperlink ref="I134" r:id="rId161" xr:uid="{2D769088-4F8E-9F48-A215-867A145549BE}"/>
+    <hyperlink ref="I136" r:id="rId162" xr:uid="{EF549858-0B17-8449-8AF0-9418B399CFF6}"/>
+    <hyperlink ref="J137" r:id="rId163" xr:uid="{04990610-2892-604E-BDF0-3D8330FF617C}"/>
+    <hyperlink ref="X138" r:id="rId164" display="https://www.google.com/maps/place/%E6%98%B6%E6%9B%9C%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7db65af0fd1:0xffaa3ae759f53f89!8m2!3d25.0388093!4d121.3895312!16s%2Fg%2F11twy26hp2?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{982B3241-B874-FD4A-BE75-193D6E733747}"/>
+    <hyperlink ref="X141" r:id="rId165" xr:uid="{6657132A-878E-9C45-9791-134F3195DC00}"/>
+    <hyperlink ref="J141" r:id="rId166" xr:uid="{67715897-1084-394F-8B4D-2D281BC9A65E}"/>
+    <hyperlink ref="J142" r:id="rId167" xr:uid="{2CF33D45-9ABC-484B-B385-9E2E8C47F6F2}"/>
+    <hyperlink ref="I143" r:id="rId168" xr:uid="{828919D8-D30E-274F-8713-73A05EBB56AD}"/>
+    <hyperlink ref="J144" r:id="rId169" xr:uid="{43EFB267-621B-F249-894E-158A76E34F0B}"/>
+    <hyperlink ref="I145" r:id="rId170" location="/index" xr:uid="{2048D563-8538-854F-AF10-AA8C322F283F}"/>
+    <hyperlink ref="I29" r:id="rId171" xr:uid="{25BC0E49-98EB-9F4C-8BFC-D46FC0FA196B}"/>
+    <hyperlink ref="I38" r:id="rId172" xr:uid="{C6FB356B-90A2-C442-B169-588018BB1969}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -11789,17 +11815,17 @@
     </row>
     <row r="7" spans="1:2" ht="14">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B992D341-222F-964F-ABDD-E1432B2B9366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29D08B-F5E4-874F-82DB-ECF9D692236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-28300" windowWidth="46140" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11080" yWindow="-27700" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -717,10 +717,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>333桃園市龜山區長慶二街1號1樓</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>03-973-9100</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -733,10 +729,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>333桃園市龜山區長慶二街9號1樓</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>ZJC 3C通訊</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -825,10 +817,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>333桃園市龜山區長慶二街81號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>0906-850-311</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -877,10 +865,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>333桃園市龜山區長慶二街3號1樓</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>SHO-S1-018L.jpeg</t>
   </si>
   <si>
@@ -1195,10 +1179,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>桃園市龜山區樂學三路y號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>SHO-S0-UTrust.jpeg</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -4365,10 +4345,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>桃園市龜山區文青路x號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>玖聲音響</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -4434,6 +4410,30 @@
   </si>
   <si>
     <t>https://www.oday.com.tw/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶二街3號1樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶二街1號1樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶二街9號1樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶二街81號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文青路91號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區樂學三路75號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -5722,10 +5722,10 @@
   <dimension ref="A1:AA146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S38" sqref="S38:T38"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -5799,7 +5799,7 @@
         <v>81</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>18</v>
@@ -5858,7 +5858,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>48</v>
@@ -5899,7 +5899,7 @@
         <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>54</v>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="8" spans="1:27" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>61</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>62</v>
@@ -6135,13 +6135,13 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>72</v>
@@ -6206,7 +6206,7 @@
         <v>151</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>149</v>
@@ -6451,7 +6451,7 @@
         <v>185</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>129</v>
@@ -6480,7 +6480,7 @@
         <v>154</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>232</v>
+        <v>1203</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>130</v>
@@ -6510,19 +6510,19 @@
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>131</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>110</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="20" spans="1:24" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>120</v>
@@ -6548,13 +6548,13 @@
         <v>151</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>193</v>
+        <v>1205</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>110</v>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="21" spans="1:24" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>121</v>
@@ -6577,10 +6577,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>133</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="22" spans="1:24" ht="20" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>122</v>
@@ -6609,10 +6609,10 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>134</v>
@@ -6630,36 +6630,36 @@
         <v>5</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="20" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="G23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>110</v>
@@ -6671,36 +6671,36 @@
         <v>5</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="20" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>219</v>
+        <v>1206</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>110</v>
@@ -6712,33 +6712,33 @@
         <v>5</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="20" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>110</v>
@@ -6750,33 +6750,33 @@
         <v>5</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="20" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>110</v>
@@ -6788,33 +6788,33 @@
         <v>5</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="20" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>110</v>
@@ -6826,33 +6826,33 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="20" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>110</v>
@@ -6864,33 +6864,33 @@
         <v>4.3</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="20" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>110</v>
@@ -6904,31 +6904,31 @@
     </row>
     <row r="30" spans="1:24" ht="20" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>110</v>
@@ -6940,42 +6940,42 @@
         <v>3.2</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="20" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="J31" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="N31" s="3"/>
       <c r="S31" s="2" t="s">
@@ -6988,39 +6988,39 @@
         <v>4.2</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="20" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="J32" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>110</v>
@@ -7032,42 +7032,42 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="20" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="N33" s="3"/>
       <c r="S33" s="2" t="s">
@@ -7080,33 +7080,33 @@
         <v>5</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="20" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>110</v>
@@ -7118,27 +7118,27 @@
         <v>5</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="20" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>110</v>
@@ -7149,31 +7149,31 @@
     </row>
     <row r="36" spans="1:24" ht="20" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>110</v>
@@ -7185,27 +7185,27 @@
         <v>3.6</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="20" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>319</v>
+        <v>1208</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>110</v>
@@ -7216,28 +7216,28 @@
     </row>
     <row r="38" spans="1:24" ht="20" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>110</v>
@@ -7248,2498 +7248,2498 @@
     </row>
     <row r="39" spans="1:24" ht="20" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="V39" s="13">
         <v>4.3</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="20" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="V40" s="13">
         <v>5</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="20" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="V41" s="13">
         <v>4.8</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="20" customHeight="1">
       <c r="A42" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="M42" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>354</v>
       </c>
       <c r="N42" s="14"/>
       <c r="S42" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="V42" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="20" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V43" s="13">
         <v>4.3</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V44" s="13">
         <v>2.5</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="20" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V45" s="13">
         <v>5</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="20" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="M46" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="N46" s="3"/>
       <c r="S46" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V46" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="20" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V47" s="13">
         <v>5</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V48" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="20" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V49" s="13">
         <v>4.2</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="20" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V50" s="13">
         <v>4.8</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="20" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V51" s="13">
         <v>2.2999999999999998</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="20" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V52" s="13">
         <v>5</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="20" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V53" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V54" s="13">
         <v>3</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V55" s="13">
         <v>5</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="20" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V57" s="13">
         <v>5</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>486</v>
-      </c>
       <c r="S58" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V59" s="13">
         <v>3</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="V60" s="13">
         <v>2.1</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V61" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V62" s="13">
         <v>5</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V63" s="13">
         <v>3.3</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="N64" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>551</v>
-      </c>
       <c r="O64" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V64" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V65" s="13">
         <v>5</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V66" s="13">
         <v>5</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V67" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="20" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V68" s="13">
         <v>5</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V69" s="13">
         <v>5</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V70" s="13">
         <v>3.3</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V71" s="13">
         <v>5</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V72" s="13">
         <v>5</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V73" s="13">
         <v>4.3</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V74" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V75" s="13">
         <v>4.7</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V76" s="13">
         <v>3.6</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V77" s="13">
         <v>5</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V78" s="13">
         <v>4</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V79" s="13">
         <v>5</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V80" s="13">
         <v>1</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V81" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V82" s="13">
         <v>4.8</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V83" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V84" s="13">
         <v>4.7</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V85" s="13">
         <v>4</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V86" s="13">
         <v>3.7</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V87" s="13">
         <v>4.5999999999999996</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V88" s="13">
         <v>4.3</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V89" s="13">
         <v>5</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V90" s="13">
         <v>3.9</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V91" s="13">
         <v>4</v>
       </c>
       <c r="X91" s="3" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V92" s="13">
         <v>4.5</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V93" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V94" s="13">
         <v>5</v>
       </c>
       <c r="X94" s="3" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V95" s="13">
         <v>3.7</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V96" s="13">
         <v>5</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V97" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X97" s="3" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V98" s="13">
         <v>5</v>
       </c>
       <c r="X98" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="I99" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="J99" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="K99" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>901</v>
-      </c>
       <c r="M99" s="3" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V99" s="13">
         <v>5</v>
       </c>
       <c r="X99" s="3" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V100" s="13">
         <v>4</v>
       </c>
       <c r="X100" s="3" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>168</v>
@@ -9748,1801 +9748,1801 @@
         <v>169</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>170</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V101" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V102" s="13">
         <v>4.5999999999999996</v>
       </c>
       <c r="X102" s="3" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V103" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V104" s="13">
         <v>5</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V105" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X105" s="3" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V106" s="13">
         <v>5</v>
       </c>
       <c r="X106" s="3" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="E107" s="11" t="s">
-        <v>938</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V107" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X107" s="3" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V108" s="13">
         <v>4.7</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V110" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V111" s="13">
         <v>3.9</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V112" s="13">
         <v>3.4</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="M113" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="E113" s="11" t="s">
-        <v>971</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>975</v>
-      </c>
       <c r="S113" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T113" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V113" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V114" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V115" s="13">
         <v>3</v>
       </c>
       <c r="X115" s="3" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T117" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V117" s="13">
         <v>3.3</v>
       </c>
       <c r="X117" s="3" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V118" s="13">
         <v>4.7</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V119" s="13">
         <v>3.1</v>
       </c>
       <c r="X119" s="3" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V120" s="13">
         <v>4.2</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V121" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X121" s="3" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V122" s="13">
         <v>5</v>
       </c>
       <c r="X122" s="3" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="I123" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="E123" s="11" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>1025</v>
-      </c>
       <c r="J123" s="3" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T123" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V123" s="13">
         <v>5</v>
       </c>
       <c r="X123" s="3" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V124" s="13">
         <v>5</v>
       </c>
       <c r="X124" s="2" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V125" s="13">
         <v>4.5</v>
       </c>
       <c r="X125" s="3" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V126" s="13">
         <v>4.7</v>
       </c>
       <c r="X126" s="2" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T127" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V127" s="13">
         <v>5</v>
       </c>
       <c r="X127" s="2" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V128" s="13">
         <v>4.8</v>
       </c>
       <c r="X128" s="2" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V129" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X129" s="3" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T130" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V130" s="13">
         <v>4</v>
       </c>
       <c r="X130" s="3" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T131" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V131" s="13">
         <v>5</v>
       </c>
       <c r="X131" s="3" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T132" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V132" s="13">
         <v>5</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T133" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V133" s="13">
         <v>3.9</v>
       </c>
       <c r="X133" s="2" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T134" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V134" s="13">
         <v>5</v>
       </c>
       <c r="X134" s="2" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T135" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V135" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X135" s="2" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V136" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V137" s="13">
         <v>5</v>
       </c>
       <c r="X137" s="2" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="X138" s="3" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V139" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X139" s="2" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V140" s="13">
         <v>5</v>
       </c>
       <c r="X140" s="2" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T141" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V141" s="13">
         <v>4.5</v>
       </c>
       <c r="X141" s="3" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T142" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V142" s="13">
         <v>5</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T143" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V143" s="13">
         <v>4.8</v>
       </c>
       <c r="X143" s="2" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T144" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V144" s="13">
         <v>4.2</v>
       </c>
       <c r="X144" s="2" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>48</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T145" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="V145" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1191</v>
+        <v>1207</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T146" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29D08B-F5E4-874F-82DB-ECF9D692236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B555A-97EF-254C-9203-CECD5E183A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="-27700" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15980" yWindow="-27200" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -4373,10 +4373,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>桃園市龜山區長慶二街 15 號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>03-397-3107</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -4434,6 +4430,10 @@
   </si>
   <si>
     <t>桃園市龜山區樂學三路75號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶二街15號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -5722,10 +5722,10 @@
   <dimension ref="A1:AA146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -6206,7 +6206,7 @@
         <v>151</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>149</v>
@@ -6480,7 +6480,7 @@
         <v>154</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>130</v>
@@ -6510,7 +6510,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>189</v>
@@ -6548,7 +6548,7 @@
         <v>151</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>132</v>
@@ -6577,10 +6577,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>1193</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>1194</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>133</v>
@@ -6685,13 +6685,13 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>217</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>202</v>
@@ -7199,7 +7199,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>290</v>
@@ -7216,28 +7216,28 @@
     </row>
     <row r="38" spans="1:24" ht="20" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>332</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>1200</v>
-      </c>
       <c r="I38" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>110</v>
@@ -11530,7 +11530,7 @@
         <v>31</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>1089</v>

--- a/data/shops.xlsx
+++ b/data/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B555A-97EF-254C-9203-CECD5E183A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FFF6BB-6347-2B4E-8486-13213699E110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15980" yWindow="-27200" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="-27200" windowWidth="46140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>7-ELEVEn 長慶門市</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>S1-002</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -329,10 +325,6 @@
   </si>
   <si>
     <t>lia867602@gmail.com</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈迪 Hardy-運動工作室一店</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -871,10 +863,6 @@
     <t>SHO-S1-019L.jpeg</t>
   </si>
   <si>
-    <t>哈迪 Hardy-運動工作室二店</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>S1-027</t>
   </si>
   <si>
@@ -1159,10 +1147,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>7-ELEVEN 富敦門市</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區樂學三路83號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1227,10 +1211,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>7-ELEVEn 恆耀門市</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區樂學路111號 113號1樓</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1710,10 +1690,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>居家萬歲系統傢俱/室內設計A7林口店</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區樂善二路199號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1988,10 +1964,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>7-ELEVEn 樂學門市</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區樂善二路505號1樓</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -2063,10 +2035,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>荷蘭原裝Poll-tex®普特絲防霾紗窗門市</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區樂善二路826號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -2783,10 +2751,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>有巢氏房屋-林口文青合宜加盟店</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文青路157號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -2941,10 +2905,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>唐璞烘焙-A7文青門市</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文青路205號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -2963,10 +2923,6 @@
     <t>https://www.google.com/maps/place/%E7%B0%A1%E5%96%AE%E5%BF%AB%E5%89%AA-A7%E6%96%87%E9%9D%92%E6%97%97%E8%89%A6%E5%BA%97/@25.0402994,121.3887097,20.18z/data=!4m6!3m5!1s0x3442a771e233486b:0x935bac93ee20550b!8m2!3d25.0403039!4d121.3887585!16s%2Fg%2F11f3ngqlln?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
   </si>
   <si>
-    <t>簡單快剪-A7文青旗艦店</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文青路203號2樓</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -3037,10 +2993,6 @@
     <t>https://www.google.com/maps/place/%E7%BE%8E%E5%BB%89%E7%A4%BE-%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0402749,121.3887461,21z/data=!4m6!3m5!1s0x3442a739cce944bb:0x5035aa47732b8354!8m2!3d25.0403298!4d121.3889065!16s%2Fg%2F11ghsg22w_?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
   </si>
   <si>
-    <t>美廉社-龜山文青店</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文青路211號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -3078,10 +3030,6 @@
     <t>https://www.google.com/maps/place/7-ELEVEn+%E5%AF%8C%E9%A8%B0%E9%96%80%E5%B8%82/@25.0402111,121.3889949,21z/data=!4m6!3m5!1s0x3442a7dda02e621d:0x1a78a62f4c8c7755!8m2!3d25.0402452!4d121.3893658!16s%2Fg%2F11rs0rfr_b?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
   </si>
   <si>
-    <t>7-ELEVEn 富騰門市</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文青路219號1樓</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -3323,10 +3271,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>樂居驗屋-桃園店</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>02-2321-0856</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -3347,10 +3291,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>美立購物 MagicZgo/團購電商</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文學路227號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -3477,10 +3417,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>7-ELEVEN 丞丞門市</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文青一路1號1樓</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -3601,10 +3537,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>琍都造型Li-Do</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文青路272號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -3621,10 +3553,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>職人眼鏡-文青店</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文青路268號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -3693,10 +3621,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>舞感空間·運動·共學</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文青路215號2樓</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -4224,10 +4148,6 @@
     <t>https://www.google.com/maps/place/%E7%BE%8E%E8%A1%A3%E6%BD%94%E6%84%9F%E6%81%A9%E8%87%AA%E5%8A%A9%E6%B4%97%E8%A1%A3%E5%BA%97%EF%BD%9C%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.038725,121.3895864,21z/data=!4m6!3m5!1s0x3442a7f1b2f4fd69:0xab58d70e101d6bcd!8m2!3d25.0388328!4d121.3897647!16s%2Fg%2F11k4sr_ntr?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
   </si>
   <si>
-    <t>美衣潔感恩自助洗衣店｜龜山文青店</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文青二路67號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -4434,6 +4354,97 @@
   </si>
   <si>
     <t>桃園市龜山區長慶二街15號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈迪 Hardy運動工作室一店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈迪 Hardy運動工作室二店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>居家萬歲系統傢俱 室內設計A7林口店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>荷蘭原裝Polltex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKaiTC"/>
+        <charset val="136"/>
+      </rPr>
+      <t>普特絲防霾紗窗門市</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>有巢氏房屋 林口文青合宜加盟店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐璞烘焙 A7文青門市</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡單快剪 A7文青旗艦店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>美廉社 龜山文青店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂居驗屋 桃園店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>美立購物 MagicZgo 團購電商</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>7ELEVEN 丞丞門市</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>7ELEVEn 富騰門市</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>7ELEVEn 樂學門市</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>7ELEVEn 恆耀門市</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>7ELEVEN 富敦門市</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>7ELEVEn 長慶門市</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>美衣潔感恩自助洗衣店 龜山文青店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞感空間 運動 共學</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>職人眼鏡 文青店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>琍都造型LiDo</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -4444,7 +4455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -4475,6 +4486,12 @@
       <color rgb="FF000000"/>
       <name val="BiauKaiTC Regular"/>
       <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="BiauKaiTC"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -5722,10 +5739,10 @@
   <dimension ref="A1:AA146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -5796,10 +5813,10 @@
         <v>19</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>18</v>
@@ -5858,13 +5875,13 @@
         <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>34</v>
@@ -5878,34 +5895,34 @@
     </row>
     <row r="3" spans="1:27" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="S3" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>34</v>
@@ -5919,38 +5936,38 @@
     </row>
     <row r="4" spans="1:27" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N4" s="14"/>
       <c r="S4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>34</v>
@@ -5959,39 +5976,39 @@
         <v>5</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>1189</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>34</v>
@@ -6000,36 +6017,36 @@
         <v>5</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>34</v>
@@ -6038,43 +6055,43 @@
         <v>5</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="M7" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="N7" s="3"/>
       <c r="S7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>34</v>
@@ -6083,36 +6100,36 @@
         <v>5</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>231</v>
+        <v>1190</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>34</v>
@@ -6121,36 +6138,36 @@
         <v>5</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>1186</v>
+        <v>1166</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1187</v>
+        <v>1167</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1188</v>
+        <v>1168</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1188</v>
+        <v>1168</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>34</v>
@@ -6159,31 +6176,31 @@
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="G10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>34</v>
@@ -6192,46 +6209,46 @@
         <v>5</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>149</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="N11" s="3"/>
       <c r="S11" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>34</v>
@@ -6242,34 +6259,34 @@
     </row>
     <row r="12" spans="1:27" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="D12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="G12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="S12" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>34</v>
@@ -6278,33 +6295,33 @@
         <v>5</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>34</v>
@@ -6315,34 +6332,34 @@
     </row>
     <row r="14" spans="1:27" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="G14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="S14" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>34</v>
@@ -6351,43 +6368,43 @@
         <v>3.4</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="G15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="N15" s="3"/>
       <c r="S15" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>34</v>
@@ -6396,39 +6413,39 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="G16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="S16" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>34</v>
@@ -6437,30 +6454,30 @@
         <v>5</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1189</v>
+        <v>1169</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>34</v>
@@ -6471,25 +6488,25 @@
     </row>
     <row r="18" spans="1:24" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1202</v>
+        <v>1182</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>34</v>
@@ -6501,31 +6518,31 @@
     </row>
     <row r="19" spans="1:24" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1203</v>
+        <v>1183</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>34</v>
@@ -6534,30 +6551,30 @@
         <v>5</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1204</v>
+        <v>1184</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>34</v>
@@ -6568,28 +6585,28 @@
     </row>
     <row r="21" spans="1:24" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1208</v>
+        <v>1188</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1193</v>
+        <v>1173</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>34</v>
@@ -6600,28 +6617,28 @@
     </row>
     <row r="22" spans="1:24" ht="20" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>34</v>
@@ -6630,39 +6647,39 @@
         <v>5</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="20" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="G23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="S23" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>34</v>
@@ -6671,39 +6688,39 @@
         <v>5</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="20" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1205</v>
+        <v>1185</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1194</v>
+        <v>1174</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>34</v>
@@ -6712,36 +6729,36 @@
         <v>5</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="20" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>34</v>
@@ -6750,36 +6767,36 @@
         <v>5</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="20" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>34</v>
@@ -6788,36 +6805,36 @@
         <v>5</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="20" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>34</v>
@@ -6826,36 +6843,36 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="20" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>34</v>
@@ -6864,36 +6881,36 @@
         <v>4.3</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="20" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>1191</v>
+        <v>1171</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>1192</v>
+        <v>1172</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>34</v>
@@ -6904,34 +6921,34 @@
     </row>
     <row r="30" spans="1:24" ht="20" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>34</v>
@@ -6940,46 +6957,46 @@
         <v>3.2</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="20" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="N31" s="3"/>
       <c r="S31" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>34</v>
@@ -6988,42 +7005,42 @@
         <v>4.2</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="20" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="S32" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>34</v>
@@ -7032,46 +7049,46 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="20" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="N33" s="3"/>
       <c r="S33" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T33" s="2" t="s">
         <v>34</v>
@@ -7080,36 +7097,36 @@
         <v>5</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="20" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="S34" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>34</v>
@@ -7118,30 +7135,30 @@
         <v>5</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="20" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>34</v>
@@ -7149,34 +7166,34 @@
     </row>
     <row r="36" spans="1:24" ht="20" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>310</v>
+        <v>1203</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>34</v>
@@ -7185,30 +7202,30 @@
         <v>3.6</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="20" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1207</v>
+        <v>1187</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>34</v>
@@ -7216,31 +7233,31 @@
     </row>
     <row r="38" spans="1:24" ht="20" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1196</v>
+        <v>1176</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1197</v>
+        <v>1177</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>1199</v>
+        <v>1179</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>34</v>
@@ -7248,4301 +7265,4301 @@
     </row>
     <row r="39" spans="1:24" ht="20" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>329</v>
+        <v>1202</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="V39" s="13">
         <v>4.3</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="20" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="V40" s="13">
         <v>5</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="20" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="V41" s="13">
         <v>4.8</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="20" customHeight="1">
       <c r="A42" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="M42" s="14" t="s">
         <v>344</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>349</v>
       </c>
       <c r="N42" s="14"/>
       <c r="S42" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="V42" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="20" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V43" s="13">
         <v>4.3</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V44" s="13">
         <v>2.5</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="20" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V45" s="13">
         <v>5</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="20" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="M46" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="N46" s="3"/>
       <c r="S46" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V46" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="20" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V47" s="13">
         <v>5</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V48" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="20" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V49" s="13">
         <v>4.2</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="20" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V50" s="13">
         <v>4.8</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="20" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V51" s="13">
         <v>2.2999999999999998</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="20" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V52" s="13">
         <v>5</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="20" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V53" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V54" s="13">
         <v>3</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>459</v>
+        <v>1191</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V55" s="13">
         <v>5</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="20" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V57" s="13">
         <v>5</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="I58" s="3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V59" s="13">
         <v>3</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V60" s="13">
         <v>2.1</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="V61" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="V62" s="13">
         <v>5</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>535</v>
+        <v>1201</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="V63" s="13">
         <v>3.3</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="V64" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="V65" s="13">
         <v>5</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>554</v>
+        <v>1192</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="V66" s="13">
         <v>5</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="V67" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="20" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="V68" s="13">
         <v>5</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="V69" s="13">
         <v>5</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>535</v>
+        <v>1201</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="V70" s="13">
         <v>3.3</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V71" s="13">
         <v>5</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V72" s="13">
         <v>5</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V73" s="13">
         <v>4.3</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V74" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V75" s="13">
         <v>4.7</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V76" s="13">
         <v>3.6</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V77" s="13">
         <v>5</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>775</v>
+        <v>1193</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V78" s="13">
         <v>4</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V79" s="13">
         <v>5</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V80" s="13">
         <v>1</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V81" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V82" s="13">
         <v>4.8</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V83" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V84" s="13">
         <v>4.7</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>815</v>
+        <v>1194</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V85" s="13">
         <v>4</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>821</v>
+        <v>1195</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V86" s="13">
         <v>3.7</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V87" s="13">
         <v>4.5999999999999996</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V88" s="13">
         <v>4.3</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V89" s="13">
         <v>5</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>841</v>
+        <v>1196</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V90" s="13">
         <v>3.9</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V91" s="13">
         <v>4</v>
       </c>
       <c r="X91" s="3" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>852</v>
+        <v>1200</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V92" s="13">
         <v>4.5</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V93" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V94" s="13">
         <v>5</v>
       </c>
       <c r="X94" s="3" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V95" s="13">
         <v>3.7</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V96" s="13">
         <v>5</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V97" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X97" s="3" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V98" s="13">
         <v>5</v>
       </c>
       <c r="X98" s="3" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V99" s="13">
         <v>5</v>
       </c>
       <c r="X99" s="3" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V100" s="13">
         <v>4</v>
       </c>
       <c r="X100" s="3" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="E101" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="I101" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="S101" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V101" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V102" s="13">
         <v>4.5999999999999996</v>
       </c>
       <c r="X102" s="3" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V103" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>915</v>
+        <v>1197</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V104" s="13">
         <v>5</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>921</v>
+        <v>1198</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V105" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X105" s="3" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V106" s="13">
         <v>5</v>
       </c>
       <c r="X106" s="3" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V107" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="X107" s="3" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V108" s="13">
         <v>4.7</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V110" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>954</v>
+        <v>1199</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V111" s="13">
         <v>3.9</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V112" s="13">
         <v>3.4</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T113" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V113" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V114" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V115" s="13">
         <v>3</v>
       </c>
       <c r="X115" s="3" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>986</v>
+        <v>1208</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>988</v>
+        <v>971</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T117" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V117" s="13">
         <v>3.3</v>
       </c>
       <c r="X117" s="3" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>991</v>
+        <v>1207</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>992</v>
+        <v>974</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>993</v>
+        <v>975</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>994</v>
+        <v>976</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>995</v>
+        <v>977</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V118" s="13">
         <v>4.7</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>990</v>
+        <v>973</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V119" s="13">
         <v>3.1</v>
       </c>
       <c r="X119" s="3" t="s">
-        <v>996</v>
+        <v>978</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>1000</v>
+        <v>982</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>1002</v>
+        <v>984</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V120" s="13">
         <v>4.2</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>1004</v>
+        <v>986</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V121" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X121" s="3" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>1009</v>
+        <v>1206</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1010</v>
+        <v>991</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>1011</v>
+        <v>992</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>1012</v>
+        <v>993</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V122" s="13">
         <v>5</v>
       </c>
       <c r="X122" s="3" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>1014</v>
+        <v>995</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>1020</v>
+        <v>1001</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T123" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V123" s="13">
         <v>5</v>
       </c>
       <c r="X123" s="3" t="s">
-        <v>1013</v>
+        <v>994</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>1022</v>
+        <v>1003</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>1024</v>
+        <v>1005</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>1025</v>
+        <v>1006</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>1027</v>
+        <v>1008</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V124" s="13">
         <v>5</v>
       </c>
       <c r="X124" s="2" t="s">
-        <v>1021</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V125" s="13">
         <v>4.5</v>
       </c>
       <c r="X125" s="3" t="s">
-        <v>1028</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>1035</v>
+        <v>1016</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>1037</v>
+        <v>1018</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>1038</v>
+        <v>1019</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V126" s="13">
         <v>4.7</v>
       </c>
       <c r="X126" s="2" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1042</v>
+        <v>1023</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>1043</v>
+        <v>1024</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>1044</v>
+        <v>1025</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>1045</v>
+        <v>1026</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T127" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V127" s="13">
         <v>5</v>
       </c>
       <c r="X127" s="2" t="s">
-        <v>1040</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>1048</v>
+        <v>1029</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1049</v>
+        <v>1030</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>1050</v>
+        <v>1031</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>1052</v>
+        <v>1033</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V128" s="13">
         <v>4.8</v>
       </c>
       <c r="X128" s="2" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1057</v>
+        <v>1038</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V129" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X129" s="3" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T130" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V130" s="13">
         <v>4</v>
       </c>
       <c r="X130" s="3" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>1110</v>
+        <v>1091</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>1112</v>
+        <v>1093</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>1074</v>
+        <v>1055</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>1090</v>
+        <v>1071</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T131" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V131" s="13">
         <v>5</v>
       </c>
       <c r="X131" s="3" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>1114</v>
+        <v>1095</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1115</v>
+        <v>1096</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>1116</v>
+        <v>1097</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1075</v>
+        <v>1056</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>1091</v>
+        <v>1072</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>1117</v>
+        <v>1098</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T132" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V132" s="13">
         <v>5</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>1113</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>1119</v>
+        <v>1100</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1060</v>
+        <v>1041</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>1123</v>
+        <v>1104</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T133" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V133" s="13">
         <v>3.9</v>
       </c>
       <c r="X133" s="2" t="s">
-        <v>1118</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>1125</v>
+        <v>1106</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1061</v>
+        <v>1042</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1126</v>
+        <v>1107</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>1127</v>
+        <v>1108</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>1077</v>
+        <v>1058</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>1093</v>
+        <v>1074</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>1128</v>
+        <v>1109</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T134" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V134" s="13">
         <v>5</v>
       </c>
       <c r="X134" s="2" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>1130</v>
+        <v>1111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>1132</v>
+        <v>1113</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1078</v>
+        <v>1059</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>1094</v>
+        <v>1075</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T135" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V135" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X135" s="2" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>1134</v>
+        <v>1115</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>1136</v>
+        <v>1117</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1137</v>
+        <v>1118</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>1138</v>
+        <v>1119</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V136" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>1133</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>1140</v>
+        <v>1121</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1141</v>
+        <v>1122</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>1142</v>
+        <v>1123</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>1143</v>
+        <v>1124</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V137" s="13">
         <v>5</v>
       </c>
       <c r="X137" s="2" t="s">
-        <v>1139</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>1145</v>
+        <v>1126</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1148</v>
+        <v>1129</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="X138" s="3" t="s">
-        <v>1144</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>1150</v>
+        <v>1131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1151</v>
+        <v>1132</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1152</v>
+        <v>1133</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1153</v>
+        <v>1134</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1082</v>
+        <v>1063</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>1098</v>
+        <v>1079</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V139" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="X139" s="2" t="s">
-        <v>1149</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>1155</v>
+        <v>1205</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1067</v>
+        <v>1048</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1156</v>
+        <v>1136</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1083</v>
+        <v>1064</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V140" s="13">
         <v>5</v>
       </c>
       <c r="X140" s="2" t="s">
-        <v>1154</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>1158</v>
+        <v>1138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1159</v>
+        <v>1139</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>1162</v>
+        <v>1142</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T141" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V141" s="13">
         <v>4.5</v>
       </c>
       <c r="X141" s="3" t="s">
-        <v>1157</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>1164</v>
+        <v>1144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1165</v>
+        <v>1145</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>1166</v>
+        <v>1146</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1167</v>
+        <v>1147</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>1085</v>
+        <v>1066</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1101</v>
+        <v>1082</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1168</v>
+        <v>1148</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T142" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V142" s="13">
         <v>5</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>1163</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1171</v>
+        <v>1151</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>1172</v>
+        <v>1152</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1173</v>
+        <v>1153</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1086</v>
+        <v>1067</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>1174</v>
+        <v>1154</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T143" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V143" s="13">
         <v>4.8</v>
       </c>
       <c r="X143" s="2" t="s">
-        <v>1169</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>1176</v>
+        <v>1156</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1177</v>
+        <v>1157</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>1178</v>
+        <v>1158</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1103</v>
+        <v>1084</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>1179</v>
+        <v>1159</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T144" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V144" s="13">
         <v>4.2</v>
       </c>
       <c r="X144" s="2" t="s">
-        <v>1175</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>1181</v>
+        <v>1161</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1182</v>
+        <v>1162</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>1183</v>
+        <v>1163</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1184</v>
+        <v>1164</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1088</v>
+        <v>1069</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>48</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T145" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="V145" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>1180</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1185</v>
+        <v>1165</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1073</v>
+        <v>1054</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1206</v>
+        <v>1186</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1089</v>
+        <v>1070</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T146" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -11815,17 +11832,17 @@
     </row>
     <row r="7" spans="1:2" ht="14">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:2">
